--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/web-app/BCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1B8A7001-1A9D-42BC-A0B1-892F751D4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0FCA621-C89A-43D2-9336-01754953FF66}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{1B8A7001-1A9D-42BC-A0B1-892F751D4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272E2213-FE72-4B7C-BAB7-2A3D35A913A6}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14550" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="879" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="BCF-BpEIEOU" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="gal_per_barrel">About!$A$66</definedName>
+    <definedName name="gal_per_barrel">About!$A$92</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1190,8 +1190,83 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andre Dixon</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{DE8F962E-2B4F-4F93-A292-F69BFF5D6926}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(BTU/gallon) * (gallon/barrel) * (barrel/cubic meter) / (kg/cubic meter) * (kg/metric ton) = BTU/metric ton
+Mexico version uses AEO Table 73 rather than GREET1 Fuel_Specs</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andre Dixon</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8C55F5DE-E1AF-4D2E-B5D6-CDE18601A76D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+U.S.:
+mile/(million BTU/barrel * 10^6 / gallons/barrel)
+= mile/BTU/gallon
+Canadian, mulitply by:
+km/mile / liters/gallon 
+= km/BTU/liter
+Consistent with Mexico and South Korea models.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="445">
   <si>
     <t>BCF BTU per Small Fuel Output Unit</t>
   </si>
@@ -2463,6 +2538,69 @@
   </si>
   <si>
     <t>Energy Import Export Output Unit (BTU/energy output unit)</t>
+  </si>
+  <si>
+    <t>short tons per metric ton</t>
+  </si>
+  <si>
+    <t>cubic feet per cubic meter</t>
+  </si>
+  <si>
+    <t>kilometers per mile</t>
+  </si>
+  <si>
+    <t>liters per gallon</t>
+  </si>
+  <si>
+    <t>Gasoline kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Diesel 2D kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Kerosene (jet fuel) kg/cubic meter</t>
+  </si>
+  <si>
+    <t>crude oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>heavy fuel oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>liter LPG/metric ton</t>
+  </si>
+  <si>
+    <t>barrels/cubic meter</t>
+  </si>
+  <si>
+    <t>J per BTU</t>
+  </si>
+  <si>
+    <t>kilometers per liter</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>In the Canadian model:</t>
+  </si>
+  <si>
+    <t>millions of metric tons</t>
+  </si>
+  <si>
+    <t>billion cubic meters</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>metric tons</t>
+  </si>
+  <si>
+    <t>cubic meters</t>
+  </si>
+  <si>
+    <t>liters</t>
   </si>
 </sst>
 </file>
@@ -2470,22 +2608,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="14">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="175" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2757,8 +2895,28 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3001,6 +3159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3484,21 +3648,21 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="54"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="54" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3510,7 +3674,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="56">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="56" applyFont="1">
@@ -3541,7 +3705,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3556,14 +3720,14 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3572,77 +3736,77 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="23" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="34" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="34" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="35" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="36" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="36" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="35" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="35" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="33" fillId="38" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="33" fillId="38" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="26" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="26" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="27" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="27" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="33" fillId="38" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="33" fillId="38" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="33" fillId="40" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="30" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="38" borderId="30" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="33" fillId="38" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="33" fillId="38" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3708,19 +3872,19 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3738,34 +3902,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3783,43 +3947,40 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3831,6 +3992,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
@@ -3839,16 +4003,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4279,43 +4450,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4324,158 +4496,157 @@
       </c>
       <c r="C6" s="177"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="173" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="177"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="174" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="175"/>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="29.1">
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="176" t="s">
         <v>34</v>
       </c>
@@ -4483,7 +4654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -4491,7 +4662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -4499,7 +4670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="43.5">
+    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="176" t="s">
         <v>40</v>
       </c>
@@ -4507,7 +4678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="176" t="s">
         <v>42</v>
       </c>
@@ -4515,27 +4686,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="176" t="s">
         <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="178" t="s">
+      <c r="C47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="176"/>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="174" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="175"/>
-    </row>
-    <row r="50" spans="1:2">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -4543,7 +4713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="29.1">
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="176" t="s">
         <v>34</v>
       </c>
@@ -4551,7 +4721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -4559,7 +4729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -4567,7 +4737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="43.5">
+    <row r="54" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="176" t="s">
         <v>52</v>
       </c>
@@ -4575,7 +4745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="176" t="s">
         <v>54</v>
       </c>
@@ -4583,7 +4753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="176" t="s">
         <v>56</v>
       </c>
@@ -4591,47 +4761,304 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="174" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="174" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="173" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="175"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="178" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="176" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="176" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>441</v>
+      </c>
+      <c r="C74" s="178" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="176"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="174" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="175"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="176" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="176" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="176" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="174" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="174" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="177"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
+      <c r="B91" s="177"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>42</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B92" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
         <f>3.142*10^6</f>
         <v>3142000</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B93" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1.1023099999999999</v>
+      </c>
+      <c r="B95" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>35.314700000000002</v>
+      </c>
+      <c r="B96" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1.60934</v>
+      </c>
+      <c r="B97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>3.7854100000000002</v>
+      </c>
+      <c r="B98" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>748</v>
+      </c>
+      <c r="B100" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>849</v>
+      </c>
+      <c r="B101" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>808</v>
+      </c>
+      <c r="B102" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>881</v>
+      </c>
+      <c r="B103" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>905</v>
+      </c>
+      <c r="B104" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1844</v>
+      </c>
+      <c r="B105" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>6.29</v>
+      </c>
+      <c r="B107" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1055.06</v>
+      </c>
+      <c r="B109" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4645,20 +5072,20 @@
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="topRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="20.88671875" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>64</v>
       </c>
@@ -4765,8 +5192,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="18" t="s">
         <v>65</v>
       </c>
@@ -4777,7 +5204,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="18" t="s">
         <v>66</v>
       </c>
@@ -4790,7 +5217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="18" t="s">
         <v>69</v>
       </c>
@@ -4801,7 +5228,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="18" t="s">
         <v>71</v>
       </c>
@@ -4812,7 +5239,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -4820,12 +5247,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>76</v>
       </c>
@@ -4935,7 +5362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>76</v>
       </c>
@@ -5045,17 +5472,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
@@ -5168,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>82</v>
       </c>
@@ -5281,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>84</v>
       </c>
@@ -5394,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>86</v>
       </c>
@@ -5507,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>88</v>
       </c>
@@ -5620,7 +6047,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>90</v>
       </c>
@@ -5733,7 +6160,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>92</v>
       </c>
@@ -5846,7 +6273,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>94</v>
       </c>
@@ -5959,7 +6386,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>96</v>
       </c>
@@ -6072,7 +6499,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
@@ -6185,7 +6612,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>100</v>
       </c>
@@ -6298,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>102</v>
       </c>
@@ -6411,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>104</v>
       </c>
@@ -6524,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>106</v>
       </c>
@@ -6637,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>108</v>
       </c>
@@ -6750,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
@@ -6863,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>112</v>
       </c>
@@ -6976,7 +7403,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>114</v>
       </c>
@@ -7089,7 +7516,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>116</v>
       </c>
@@ -7202,7 +7629,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>118</v>
       </c>
@@ -7315,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>120</v>
       </c>
@@ -7428,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>122</v>
       </c>
@@ -7541,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>124</v>
       </c>
@@ -7654,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>126</v>
       </c>
@@ -7767,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>128</v>
       </c>
@@ -7880,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>130</v>
       </c>
@@ -7993,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>132</v>
       </c>
@@ -8106,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>134</v>
       </c>
@@ -8219,7 +8646,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>136</v>
       </c>
@@ -8332,7 +8759,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>138</v>
       </c>
@@ -8445,7 +8872,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>140</v>
       </c>
@@ -8558,12 +8985,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>143</v>
       </c>
@@ -8676,7 +9103,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>145</v>
       </c>
@@ -8789,7 +9216,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>147</v>
       </c>
@@ -8902,7 +9329,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>149</v>
       </c>
@@ -9015,12 +9442,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>152</v>
       </c>
@@ -9133,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>154</v>
       </c>
@@ -9246,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>156</v>
       </c>
@@ -9359,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>158</v>
       </c>
@@ -9472,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>160</v>
       </c>
@@ -9585,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>162</v>
       </c>
@@ -9698,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>164</v>
       </c>
@@ -9811,12 +10238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>167</v>
       </c>
@@ -9929,7 +10356,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>168</v>
       </c>
@@ -10042,7 +10469,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>170</v>
       </c>
@@ -10155,7 +10582,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>172</v>
       </c>
@@ -10268,7 +10695,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>173</v>
       </c>
@@ -10381,7 +10808,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>175</v>
       </c>
@@ -10494,7 +10921,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>177</v>
       </c>
@@ -10607,7 +11034,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>179</v>
       </c>
@@ -10720,7 +11147,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>181</v>
       </c>
@@ -10833,7 +11260,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>182</v>
       </c>
@@ -10946,7 +11373,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>183</v>
       </c>
@@ -11059,7 +11486,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>186</v>
       </c>
@@ -11172,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>188</v>
       </c>
@@ -11285,8 +11712,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="182" t="s">
         <v>190</v>
       </c>
@@ -11326,37 +11753,37 @@
       <c r="AJ78" s="182"/>
       <c r="AK78" s="182"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>197</v>
       </c>
@@ -11374,37 +11801,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6">
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>200</v>
       </c>
@@ -11427,7 +11854,7 @@
       </c>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:23" ht="26.45">
+    <row r="4" spans="1:23" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="27" t="s">
         <v>205</v>
@@ -11452,7 +11879,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>212</v>
       </c>
@@ -11469,7 +11896,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>214</v>
       </c>
@@ -11490,7 +11917,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>217</v>
       </c>
@@ -11519,7 +11946,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>218</v>
       </c>
@@ -11548,7 +11975,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>219</v>
       </c>
@@ -11577,7 +12004,7 @@
         <v>0.93500000000000016</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>220</v>
       </c>
@@ -11606,7 +12033,7 @@
         <v>0.93500000000000016</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>221</v>
       </c>
@@ -11643,7 +12070,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="52"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>222</v>
       </c>
@@ -11672,7 +12099,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>223</v>
       </c>
@@ -11701,7 +12128,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -11730,7 +12157,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>225</v>
       </c>
@@ -11767,7 +12194,7 @@
       <c r="V15" s="57"/>
       <c r="W15" s="53"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>226</v>
       </c>
@@ -11801,7 +12228,7 @@
       <c r="V16" s="57"/>
       <c r="W16" s="53"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>227</v>
       </c>
@@ -11838,7 +12265,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="53"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>228</v>
       </c>
@@ -11872,7 +12299,7 @@
       <c r="V18" s="57"/>
       <c r="W18" s="53"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>229</v>
       </c>
@@ -11906,7 +12333,7 @@
       <c r="M19" s="57"/>
       <c r="N19" s="53"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>230</v>
       </c>
@@ -11936,7 +12363,7 @@
       </c>
       <c r="W20" s="53"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
         <v>231</v>
       </c>
@@ -11963,7 +12390,7 @@
       </c>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>232</v>
       </c>
@@ -11992,7 +12419,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="41" t="s">
         <v>233</v>
       </c>
@@ -12021,7 +12448,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>234</v>
       </c>
@@ -12050,7 +12477,7 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>235</v>
       </c>
@@ -12079,7 +12506,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>236</v>
       </c>
@@ -12108,7 +12535,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>237</v>
       </c>
@@ -12137,7 +12564,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>238</v>
       </c>
@@ -12166,7 +12593,7 @@
         <v>0.93135126106564226</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>239</v>
       </c>
@@ -12195,7 +12622,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>240</v>
       </c>
@@ -12224,7 +12651,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
         <v>241</v>
       </c>
@@ -12253,7 +12680,7 @@
         <v>0.87806748466257667</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>242</v>
       </c>
@@ -12282,7 +12709,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
         <v>243</v>
       </c>
@@ -12311,7 +12738,7 @@
         <v>0.92051300964428628</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
         <v>244</v>
       </c>
@@ -12340,7 +12767,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
         <v>245</v>
       </c>
@@ -12369,7 +12796,7 @@
         <v>0.93364967025896739</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
         <v>246</v>
       </c>
@@ -12398,7 +12825,7 @@
         <v>0.9293293950333662</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
         <v>247</v>
       </c>
@@ -12427,7 +12854,7 @@
         <v>0.88092431030417351</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
         <v>248</v>
       </c>
@@ -12456,7 +12883,7 @@
         <v>0.91165189789710355</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>249</v>
       </c>
@@ -12485,7 +12912,7 @@
         <v>0.91165189789710355</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>250</v>
       </c>
@@ -12514,7 +12941,7 @@
         <v>0.93427633635511098</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>251</v>
       </c>
@@ -12543,7 +12970,7 @@
         <v>0.95108821041298164</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>252</v>
       </c>
@@ -12572,7 +12999,7 @@
         <v>0.93427633635511098</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>253</v>
       </c>
@@ -12601,7 +13028,7 @@
         <v>0.93938096730547249</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>254</v>
       </c>
@@ -12630,7 +13057,7 @@
         <v>0.92840083590406852</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>255</v>
       </c>
@@ -12659,7 +13086,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>256</v>
       </c>
@@ -12688,7 +13115,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>257</v>
       </c>
@@ -12717,7 +13144,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>258</v>
       </c>
@@ -12746,7 +13173,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>259</v>
       </c>
@@ -12775,7 +13202,7 @@
         <v>0.84675180455302612</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>260</v>
       </c>
@@ -12804,7 +13231,7 @@
         <v>0.92494808662118067</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>261</v>
       </c>
@@ -12833,7 +13260,7 @@
         <v>0.92528460728977324</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>262</v>
       </c>
@@ -12862,7 +13289,7 @@
         <v>0.92548586165607438</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>263</v>
       </c>
@@ -12891,7 +13318,7 @@
         <v>0.92007362914163926</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>264</v>
       </c>
@@ -12920,7 +13347,7 @@
         <v>0.91375811688311692</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>265</v>
       </c>
@@ -12949,7 +13376,7 @@
         <v>0.92923017182797785</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
         <v>266</v>
       </c>
@@ -12978,7 +13405,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
         <v>267</v>
       </c>
@@ -13005,7 +13432,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="36" t="s">
         <v>268</v>
       </c>
@@ -13034,7 +13461,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
         <v>269</v>
       </c>
@@ -13057,7 +13484,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="41" t="s">
         <v>272</v>
       </c>
@@ -13086,7 +13513,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>273</v>
       </c>
@@ -13115,7 +13542,7 @@
         <v>0.9009009009009008</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
         <v>274</v>
       </c>
@@ -13144,7 +13571,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>275</v>
       </c>
@@ -13165,7 +13592,7 @@
       </c>
       <c r="I63" s="47"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="36" t="s">
         <v>276</v>
       </c>
@@ -13194,7 +13621,7 @@
         <v>0.90586790472651468</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>277</v>
       </c>
@@ -13215,7 +13642,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="59" t="s">
         <v>279</v>
       </c>
@@ -13241,7 +13668,7 @@
       <c r="I66" s="81"/>
       <c r="K66" s="82"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="59" t="s">
         <v>280</v>
       </c>
@@ -13269,7 +13696,7 @@
       </c>
       <c r="K67" s="82"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="59" t="s">
         <v>281</v>
       </c>
@@ -13297,7 +13724,7 @@
       </c>
       <c r="K68" s="82"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="59" t="s">
         <v>282</v>
       </c>
@@ -13325,7 +13752,7 @@
       </c>
       <c r="K69" s="82"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="59" t="s">
         <v>283</v>
       </c>
@@ -13353,7 +13780,7 @@
       </c>
       <c r="K70" s="82"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>284</v>
       </c>
@@ -13382,7 +13809,7 @@
       <c r="K71" s="82"/>
       <c r="L71" s="82"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>285</v>
       </c>
@@ -13410,7 +13837,7 @@
       </c>
       <c r="K72" s="82"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>286</v>
       </c>
@@ -13437,7 +13864,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="12.6" customHeight="1">
+    <row r="74" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>287</v>
       </c>
@@ -13465,7 +13892,7 @@
       </c>
       <c r="K74" s="84"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="41" t="s">
         <v>288</v>
       </c>
@@ -13493,7 +13920,7 @@
       </c>
       <c r="K75" s="84"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>289</v>
       </c>
@@ -13520,7 +13947,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>290</v>
       </c>
@@ -13548,7 +13975,7 @@
       </c>
       <c r="K77" s="85"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>291</v>
       </c>
@@ -13576,7 +14003,7 @@
       </c>
       <c r="K78" s="84"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="41" t="s">
         <v>292</v>
       </c>
@@ -13603,7 +14030,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>293</v>
       </c>
@@ -13630,7 +14057,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>294</v>
       </c>
@@ -13657,7 +14084,7 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>295</v>
       </c>
@@ -13684,7 +14111,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="59" t="s">
         <v>296</v>
       </c>
@@ -13707,7 +14134,7 @@
       </c>
       <c r="I83" s="88"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="89" t="s">
         <v>297</v>
       </c>
@@ -13730,7 +14157,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="89" t="s">
         <v>298</v>
       </c>
@@ -13753,7 +14180,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="89" t="s">
         <v>299</v>
       </c>
@@ -13780,7 +14207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="92" t="s">
         <v>300</v>
       </c>
@@ -13807,7 +14234,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="93" t="s">
         <v>301</v>
       </c>
@@ -13834,7 +14261,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>302</v>
       </c>
@@ -13861,7 +14288,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
         <v>303</v>
       </c>
@@ -13888,7 +14315,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>304</v>
       </c>
@@ -13915,7 +14342,7 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="104" t="s">
         <v>305</v>
       </c>
@@ -13949,7 +14376,7 @@
       <c r="M92" s="107"/>
       <c r="N92" s="108"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="109" t="s">
         <v>306</v>
       </c>
@@ -13975,19 +14402,19 @@
       <c r="M93" s="111"/>
       <c r="N93" s="112"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="113"/>
       <c r="B94" s="114"/>
       <c r="N94" s="115"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="113" t="s">
         <v>307</v>
       </c>
       <c r="B95" s="114"/>
       <c r="N95" s="115"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="109" t="s">
         <v>308</v>
       </c>
@@ -14005,7 +14432,7 @@
       <c r="M96" s="117"/>
       <c r="N96" s="118"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="119" t="s">
         <v>309</v>
       </c>
@@ -14049,7 +14476,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>316</v>
       </c>
@@ -14093,7 +14520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="120" t="s">
         <v>317</v>
       </c>
@@ -14137,7 +14564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="109" t="s">
         <v>318</v>
       </c>
@@ -14181,7 +14608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="113" t="s">
         <v>319</v>
       </c>
@@ -14225,19 +14652,19 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="113"/>
       <c r="B102" s="114"/>
       <c r="G102" s="115"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="113" t="s">
         <v>320</v>
       </c>
       <c r="B103" s="114"/>
       <c r="G103" s="115"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="113" t="s">
         <v>321</v>
       </c>
@@ -14260,7 +14687,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="109" t="s">
         <v>316</v>
       </c>
@@ -14281,7 +14708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>325</v>
       </c>
@@ -14304,7 +14731,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>326</v>
       </c>
@@ -14327,7 +14754,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="104" t="s">
         <v>327</v>
       </c>
@@ -14350,7 +14777,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="113" t="s">
         <v>328</v>
       </c>
@@ -14373,7 +14800,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="113" t="s">
         <v>329</v>
       </c>
@@ -14396,17 +14823,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="113"/>
       <c r="B111" s="129"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="109" t="s">
         <v>330</v>
       </c>
       <c r="B112" s="130"/>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>331</v>
       </c>
@@ -14414,7 +14841,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
         <v>332</v>
       </c>
@@ -14422,7 +14849,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>333</v>
       </c>
@@ -14430,7 +14857,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>334</v>
       </c>
@@ -14443,7 +14870,7 @@
       <c r="R116" s="133"/>
       <c r="V116" s="133"/>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>335</v>
       </c>
@@ -14456,7 +14883,7 @@
       <c r="R117" s="136"/>
       <c r="V117" s="136"/>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B118" s="137"/>
       <c r="C118" s="138"/>
       <c r="D118" s="139"/>
@@ -14476,7 +14903,7 @@
       <c r="W118" s="140"/>
       <c r="X118" s="139"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>336</v>
       </c>
@@ -14499,7 +14926,7 @@
       <c r="W119" s="142"/>
       <c r="X119" s="143"/>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B120" s="144"/>
       <c r="C120" s="136"/>
       <c r="D120" s="145"/>
@@ -14519,7 +14946,7 @@
       <c r="W120" s="136"/>
       <c r="X120" s="145"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B121" s="144">
         <v>10</v>
       </c>
@@ -14551,7 +14978,7 @@
       <c r="W121" s="136"/>
       <c r="X121" s="145"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B122" s="144">
         <v>10</v>
       </c>
@@ -14583,7 +15010,7 @@
       <c r="W122" s="136"/>
       <c r="X122" s="145"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B123" s="144" t="s">
         <v>337</v>
       </c>
@@ -14639,7 +15066,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B124" s="144">
         <v>1990</v>
       </c>
@@ -14695,7 +15122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B125" s="144">
         <v>1995</v>
       </c>
@@ -14751,7 +15178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B126" s="149">
         <v>2000</v>
       </c>
@@ -14807,7 +15234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>2005</v>
       </c>
@@ -14863,7 +15290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128">
         <v>2010</v>
@@ -14920,7 +15347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129" s="152"/>
       <c r="B129" s="153">
         <v>2015</v>
@@ -14978,7 +15405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A130" s="155"/>
       <c r="B130" s="156">
         <v>2017</v>
@@ -15036,7 +15463,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A131" s="155"/>
       <c r="B131" s="159">
         <v>2020</v>
@@ -15050,7 +15477,7 @@
       <c r="E131" s="157"/>
       <c r="F131" s="160"/>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" s="155"/>
       <c r="B132" s="159"/>
       <c r="C132" s="159"/>
@@ -15058,7 +15485,7 @@
       <c r="E132" s="159"/>
       <c r="F132" s="160"/>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133" s="155" t="s">
         <v>345</v>
       </c>
@@ -15068,7 +15495,7 @@
       <c r="E133" s="156"/>
       <c r="F133" s="158"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" s="161" t="s">
         <v>346</v>
       </c>
@@ -15088,7 +15515,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>352</v>
       </c>
@@ -15108,7 +15535,7 @@
         <v>907184.74</v>
       </c>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A136" s="152" t="s">
         <v>51</v>
       </c>
@@ -15128,7 +15555,7 @@
         <v>907.18474000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A137" s="155" t="s">
         <v>353</v>
       </c>
@@ -15148,7 +15575,7 @@
         <v>0.90718474000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138" s="155" t="s">
         <v>354</v>
       </c>
@@ -15168,7 +15595,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139" s="155" t="s">
         <v>355</v>
       </c>
@@ -15188,7 +15615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140" s="155"/>
       <c r="B140" s="136"/>
       <c r="C140" s="159"/>
@@ -15196,7 +15623,7 @@
       <c r="E140" s="156"/>
       <c r="F140" s="160"/>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141" s="161" t="s">
         <v>356</v>
       </c>
@@ -15216,7 +15643,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>362</v>
       </c>
@@ -15236,7 +15663,7 @@
         <v>2.8316846999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143" s="152" t="s">
         <v>363</v>
       </c>
@@ -15259,7 +15686,7 @@
       <c r="H143" s="153"/>
       <c r="I143" s="154"/>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144" s="155" t="s">
         <v>364</v>
       </c>
@@ -15282,7 +15709,7 @@
       <c r="H144" s="156"/>
       <c r="I144" s="115"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="155" t="s">
         <v>365</v>
       </c>
@@ -15305,7 +15732,7 @@
       <c r="H145" s="156"/>
       <c r="I145" s="115"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="155" t="s">
         <v>366</v>
       </c>
@@ -15328,7 +15755,7 @@
       <c r="H146" s="156"/>
       <c r="I146" s="115"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="155"/>
       <c r="B147" s="159"/>
       <c r="C147" s="157"/>
@@ -15339,7 +15766,7 @@
       <c r="H147" s="156"/>
       <c r="I147" s="115"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="155" t="s">
         <v>367</v>
       </c>
@@ -15368,7 +15795,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="155" t="s">
         <v>376</v>
       </c>
@@ -15397,7 +15824,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="155" t="s">
         <v>377</v>
       </c>
@@ -15426,7 +15853,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="161" t="s">
         <v>378</v>
       </c>
@@ -15455,7 +15882,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>379</v>
       </c>
@@ -15484,7 +15911,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>380</v>
       </c>
@@ -15513,7 +15940,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>381</v>
       </c>
@@ -15542,7 +15969,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>382</v>
       </c>
@@ -15571,7 +15998,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>383</v>
       </c>
@@ -15600,7 +16027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>384</v>
       </c>
@@ -15620,7 +16047,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>385</v>
       </c>
@@ -15640,7 +16067,7 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>386</v>
       </c>
@@ -15660,7 +16087,7 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>387</v>
       </c>
@@ -15680,7 +16107,7 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>388</v>
       </c>
@@ -15700,7 +16127,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>389</v>
       </c>
@@ -15750,17 +16177,18 @@
   </sheetPr>
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="34" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>390</v>
       </c>
@@ -15864,562 +16292,562 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>391</v>
       </c>
       <c r="B2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="C2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="D2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="E2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="F2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="G2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="H2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="I2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="J2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="K2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="L2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="M2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="N2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="O2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="P2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Q2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="R2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="S2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="T2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="U2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="V2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="W2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="X2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Y2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Z2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AA2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AB2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AC2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AD2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AE2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AF2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AG2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AH2">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>392</v>
       </c>
-      <c r="B3">
-        <f>'AEO Table 73'!D66*10^12</f>
-        <v>19706896000000</v>
-      </c>
-      <c r="C3">
-        <f>'AEO Table 73'!E66*10^12</f>
-        <v>19588093000000</v>
-      </c>
-      <c r="D3">
-        <f>'AEO Table 73'!F66*10^12</f>
-        <v>19676338000000</v>
-      </c>
-      <c r="E3">
-        <f>'AEO Table 73'!G66*10^12</f>
-        <v>19593861000000</v>
-      </c>
-      <c r="F3">
-        <f>'AEO Table 73'!H66*10^12</f>
-        <v>19763271000000</v>
-      </c>
-      <c r="G3">
-        <f>'AEO Table 73'!I66*10^12</f>
-        <v>19874037000000</v>
-      </c>
-      <c r="H3">
-        <f>'AEO Table 73'!J66*10^12</f>
-        <v>19832983000000</v>
-      </c>
-      <c r="I3">
-        <f>'AEO Table 73'!K66*10^12</f>
-        <v>19854052000000</v>
-      </c>
-      <c r="J3">
-        <f>'AEO Table 73'!L66*10^12</f>
-        <v>19849159000000</v>
-      </c>
-      <c r="K3">
-        <f>'AEO Table 73'!M66*10^12</f>
-        <v>19841606000000</v>
-      </c>
-      <c r="L3">
-        <f>'AEO Table 73'!N66*10^12</f>
-        <v>19838451000000</v>
-      </c>
-      <c r="M3">
-        <f>'AEO Table 73'!O66*10^12</f>
-        <v>19782232000000</v>
-      </c>
-      <c r="N3">
-        <f>'AEO Table 73'!P66*10^12</f>
-        <v>19750866000000</v>
-      </c>
-      <c r="O3">
-        <f>'AEO Table 73'!Q66*10^12</f>
-        <v>19757530000000</v>
-      </c>
-      <c r="P3">
-        <f>'AEO Table 73'!R66*10^12</f>
-        <v>19792145000000</v>
-      </c>
-      <c r="Q3">
-        <f>'AEO Table 73'!S66*10^12</f>
-        <v>19787580000000</v>
-      </c>
-      <c r="R3">
-        <f>'AEO Table 73'!T66*10^12</f>
-        <v>19792101000000</v>
-      </c>
-      <c r="S3">
-        <f>'AEO Table 73'!U66*10^12</f>
-        <v>19801369000000</v>
-      </c>
-      <c r="T3">
-        <f>'AEO Table 73'!V66*10^12</f>
-        <v>19790552000000</v>
-      </c>
-      <c r="U3">
-        <f>'AEO Table 73'!W66*10^12</f>
-        <v>19813770000000</v>
-      </c>
-      <c r="V3">
-        <f>'AEO Table 73'!X66*10^12</f>
-        <v>19823812000000</v>
-      </c>
-      <c r="W3">
-        <f>'AEO Table 73'!Y66*10^12</f>
-        <v>19819962000000</v>
-      </c>
-      <c r="X3">
-        <f>'AEO Table 73'!Z66*10^12</f>
-        <v>19817593000000</v>
-      </c>
-      <c r="Y3">
-        <f>'AEO Table 73'!AA66*10^12</f>
-        <v>19814734000000</v>
-      </c>
-      <c r="Z3">
-        <f>'AEO Table 73'!AB66*10^12</f>
-        <v>19808729000000</v>
-      </c>
-      <c r="AA3">
-        <f>'AEO Table 73'!AC66*10^12</f>
-        <v>19816940000000</v>
-      </c>
-      <c r="AB3">
-        <f>'AEO Table 73'!AD66*10^12</f>
-        <v>19822159000000</v>
-      </c>
-      <c r="AC3">
-        <f>'AEO Table 73'!AE66*10^12</f>
-        <v>19832388000000</v>
-      </c>
-      <c r="AD3">
-        <f>'AEO Table 73'!AF66*10^12</f>
-        <v>19856539000000</v>
-      </c>
-      <c r="AE3">
-        <f>'AEO Table 73'!AG66*10^12</f>
-        <v>19880623000000</v>
-      </c>
-      <c r="AF3">
-        <f>'AEO Table 73'!AH66*10^12</f>
-        <v>19899242000000</v>
-      </c>
-      <c r="AG3">
-        <f>'AEO Table 73'!AI66*10^12</f>
-        <v>19884989000000</v>
-      </c>
-      <c r="AH3">
-        <f>'AEO Table 73'!AJ66*10^12</f>
-        <v>19887484000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15">
+      <c r="B3" s="183">
+        <f>About!$A$95*'AEO Table 73'!D66*10^12</f>
+        <v>21723108529759.996</v>
+      </c>
+      <c r="C3" s="186">
+        <f>About!$A$95*'AEO Table 73'!E66*10^12</f>
+        <v>21592150794829.996</v>
+      </c>
+      <c r="D3" s="186">
+        <f>About!$A$95*'AEO Table 73'!F66*10^12</f>
+        <v>21689424140780</v>
+      </c>
+      <c r="E3" s="186">
+        <f>About!$A$95*'AEO Table 73'!G66*10^12</f>
+        <v>21598508918910</v>
+      </c>
+      <c r="F3" s="186">
+        <f>About!$A$95*'AEO Table 73'!H66*10^12</f>
+        <v>21785251256009.996</v>
+      </c>
+      <c r="G3" s="186">
+        <f>About!$A$95*'AEO Table 73'!I66*10^12</f>
+        <v>21907349725470</v>
+      </c>
+      <c r="H3" s="186">
+        <f>About!$A$95*'AEO Table 73'!J66*10^12</f>
+        <v>21862095490729.996</v>
+      </c>
+      <c r="I3" s="186">
+        <f>About!$A$95*'AEO Table 73'!K66*10^12</f>
+        <v>21885320060119.996</v>
+      </c>
+      <c r="J3" s="186">
+        <f>About!$A$95*'AEO Table 73'!L66*10^12</f>
+        <v>21879926457289.996</v>
+      </c>
+      <c r="K3" s="186">
+        <f>About!$A$95*'AEO Table 73'!M66*10^12</f>
+        <v>21871600709859.996</v>
+      </c>
+      <c r="L3" s="186">
+        <f>About!$A$95*'AEO Table 73'!N66*10^12</f>
+        <v>21868122921810</v>
+      </c>
+      <c r="M3" s="186">
+        <f>About!$A$95*'AEO Table 73'!O66*10^12</f>
+        <v>21806152155920</v>
+      </c>
+      <c r="N3" s="186">
+        <f>About!$A$95*'AEO Table 73'!P66*10^12</f>
+        <v>21771577100459.996</v>
+      </c>
+      <c r="O3" s="186">
+        <f>About!$A$95*'AEO Table 73'!Q66*10^12</f>
+        <v>21778922894299.996</v>
+      </c>
+      <c r="P3" s="186">
+        <f>About!$A$95*'AEO Table 73'!R66*10^12</f>
+        <v>21817079354950</v>
+      </c>
+      <c r="Q3" s="186">
+        <f>About!$A$95*'AEO Table 73'!S66*10^12</f>
+        <v>21812047309799.996</v>
+      </c>
+      <c r="R3" s="186">
+        <f>About!$A$95*'AEO Table 73'!T66*10^12</f>
+        <v>21817030853309.996</v>
+      </c>
+      <c r="S3" s="186">
+        <f>About!$A$95*'AEO Table 73'!U66*10^12</f>
+        <v>21827247062390</v>
+      </c>
+      <c r="T3" s="186">
+        <f>About!$A$95*'AEO Table 73'!V66*10^12</f>
+        <v>21815323375120</v>
+      </c>
+      <c r="U3" s="186">
+        <f>About!$A$95*'AEO Table 73'!W66*10^12</f>
+        <v>21840916808700</v>
+      </c>
+      <c r="V3" s="186">
+        <f>About!$A$95*'AEO Table 73'!X66*10^12</f>
+        <v>21851986205720</v>
+      </c>
+      <c r="W3" s="186">
+        <f>About!$A$95*'AEO Table 73'!Y66*10^12</f>
+        <v>21847742312220</v>
+      </c>
+      <c r="X3" s="186">
+        <f>About!$A$95*'AEO Table 73'!Z66*10^12</f>
+        <v>21845130939829.996</v>
+      </c>
+      <c r="Y3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AA66*10^12</f>
+        <v>21841979435540</v>
+      </c>
+      <c r="Z3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AB66*10^12</f>
+        <v>21835360063990</v>
+      </c>
+      <c r="AA3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AC66*10^12</f>
+        <v>21844411131399.996</v>
+      </c>
+      <c r="AB3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AD66*10^12</f>
+        <v>21850164087289.996</v>
+      </c>
+      <c r="AC3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AE66*10^12</f>
+        <v>21861439616280</v>
+      </c>
+      <c r="AD3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AF66*10^12</f>
+        <v>21888061505090</v>
+      </c>
+      <c r="AE3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AG66*10^12</f>
+        <v>21914609539129.996</v>
+      </c>
+      <c r="AF3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AH66*10^12</f>
+        <v>21935133449020</v>
+      </c>
+      <c r="AG3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AI66*10^12</f>
+        <v>21919422224590</v>
+      </c>
+      <c r="AH3" s="186">
+        <f>About!$A$95*'AEO Table 73'!AJ66*10^12</f>
+        <v>21922172488039.996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
-        <f>'AEO Table 73'!D54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="C4">
-        <f>'AEO Table 73'!E54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="D4">
-        <f>'AEO Table 73'!F54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="E4">
-        <f>'AEO Table 73'!G54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="F4">
-        <f>'AEO Table 73'!H54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="G4">
-        <f>'AEO Table 73'!I54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="H4">
-        <f>'AEO Table 73'!J54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="I4">
-        <f>'AEO Table 73'!K54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="J4">
-        <f>'AEO Table 73'!L54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="K4">
-        <f>'AEO Table 73'!M54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="L4">
-        <f>'AEO Table 73'!N54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="M4">
-        <f>'AEO Table 73'!O54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="N4">
-        <f>'AEO Table 73'!P54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="O4">
-        <f>'AEO Table 73'!Q54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="P4">
-        <f>'AEO Table 73'!R54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="Q4">
-        <f>'AEO Table 73'!S54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="R4">
-        <f>'AEO Table 73'!T54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="S4">
-        <f>'AEO Table 73'!U54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="T4">
-        <f>'AEO Table 73'!V54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="U4">
-        <f>'AEO Table 73'!W54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="V4">
-        <f>'AEO Table 73'!X54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="W4">
-        <f>'AEO Table 73'!Y54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="X4">
-        <f>'AEO Table 73'!Z54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="Y4">
-        <f>'AEO Table 73'!AA54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="Z4">
-        <f>'AEO Table 73'!AB54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="AA4">
-        <f>'AEO Table 73'!AC54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="AB4">
-        <f>'AEO Table 73'!AD54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="AC4">
-        <f>'AEO Table 73'!AE54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="AD4">
-        <f>'AEO Table 73'!AF54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="AE4">
-        <f>'AEO Table 73'!AG54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="AF4">
-        <f>'AEO Table 73'!AH54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="AG4">
-        <f>'AEO Table 73'!AI54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-      <c r="AH4">
-        <f>'AEO Table 73'!AJ54*10^15</f>
-        <v>1036999999999999.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15">
+      <c r="B4" s="183">
+        <f>About!$A$96*'AEO Table 73'!D54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="C4" s="186">
+        <f>About!$A$96*'AEO Table 73'!E54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="D4" s="186">
+        <f>About!$A$96*'AEO Table 73'!F54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="E4" s="186">
+        <f>About!$A$96*'AEO Table 73'!G54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="F4" s="186">
+        <f>About!$A$96*'AEO Table 73'!H54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="G4" s="186">
+        <f>About!$A$96*'AEO Table 73'!I54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="H4" s="186">
+        <f>About!$A$96*'AEO Table 73'!J54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="I4" s="186">
+        <f>About!$A$96*'AEO Table 73'!K54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="J4" s="186">
+        <f>About!$A$96*'AEO Table 73'!L54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="K4" s="186">
+        <f>About!$A$96*'AEO Table 73'!M54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="L4" s="186">
+        <f>About!$A$96*'AEO Table 73'!N54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="M4" s="186">
+        <f>About!$A$96*'AEO Table 73'!O54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="N4" s="186">
+        <f>About!$A$96*'AEO Table 73'!P54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="O4" s="186">
+        <f>About!$A$96*'AEO Table 73'!Q54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="P4" s="186">
+        <f>About!$A$96*'AEO Table 73'!R54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="Q4" s="186">
+        <f>About!$A$96*'AEO Table 73'!S54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="R4" s="186">
+        <f>About!$A$96*'AEO Table 73'!T54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="S4" s="186">
+        <f>About!$A$96*'AEO Table 73'!U54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="T4" s="186">
+        <f>About!$A$96*'AEO Table 73'!V54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="U4" s="186">
+        <f>About!$A$96*'AEO Table 73'!W54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="V4" s="186">
+        <f>About!$A$96*'AEO Table 73'!X54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="W4" s="186">
+        <f>About!$A$96*'AEO Table 73'!Y54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="X4" s="186">
+        <f>About!$A$96*'AEO Table 73'!Z54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="Y4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AA54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="Z4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AB54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="AA4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AC54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="AB4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AD54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="AC4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AE54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="AD4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AF54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="AE4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AG54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="AF4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AH54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="AG4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AI54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+      <c r="AH4" s="186">
+        <f>About!$A$96*'AEO Table 73'!AJ54*10^15</f>
+        <v>3.66213439E+16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>393</v>
       </c>
-      <c r="B5">
-        <f t="shared" ref="B5:AH5" si="0">10^12</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="15">
+      <c r="B5" s="183">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="C5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="D5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="E5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="F5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="G5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="H5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="I5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="J5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="K5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="L5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="M5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="N5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="O5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="P5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="Q5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="R5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="S5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="T5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="U5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="V5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="W5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="X5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="Y5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="Z5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="AA5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="AB5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="AC5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="AD5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="AE5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="AF5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="AG5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+      <c r="AH5" s="186">
+        <f>1000/About!$A$109*10^12</f>
+        <v>947813394498.89111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>394</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="186">
         <v>0</v>
       </c>
       <c r="D6">
@@ -16516,14 +16944,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>395</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="186">
         <v>0</v>
       </c>
       <c r="D7">
@@ -16620,14 +17048,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>396</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="186">
         <v>0</v>
       </c>
       <c r="D8">
@@ -16724,152 +17152,152 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
-      <c r="B9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="C9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="D9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="E9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="F9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="G9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="H9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="I9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="J9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="K9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="L9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="M9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="N9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="O9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="P9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="Q9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="R9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="S9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="T9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="U9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="V9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="W9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="X9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="Y9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="Z9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="AA9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="AB9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="AC9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="AD9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="AE9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="AF9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="AG9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-      <c r="AH9">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="15">
+      <c r="B9" s="183">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="C9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="D9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="E9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="F9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="G9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="H9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="I9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="J9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="K9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="L9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="M9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="N9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="O9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="P9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="Q9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="R9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="S9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="T9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="U9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="V9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="W9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="X9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="Y9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="Z9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="AA9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="AB9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="AC9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="AD9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="AE9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="AF9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="AG9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+      <c r="AH9" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <v>19737962860000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>398</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="184">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="186">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
@@ -16998,15 +17426,15 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>399</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="92">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="186">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
@@ -17135,15 +17563,15 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>400</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="92">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="186">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
@@ -17272,15 +17700,15 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>401</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="92">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="186">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
@@ -17409,15 +17837,15 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>402</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="93">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="186">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
@@ -17546,151 +17974,151 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>403</v>
       </c>
       <c r="B15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
-      <c r="C15">
-        <f>About!$A$67*10^6</f>
+      <c r="C15" s="186">
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="D15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="E15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="F15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="G15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="H15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="I15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="J15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="K15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="L15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="M15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="N15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="O15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="P15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Q15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="R15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="S15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="T15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="U15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="V15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="W15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="X15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Y15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="Z15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AA15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AB15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AC15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AD15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AE15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AF15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AG15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="AH15">
-        <f>About!$A$67*10^6</f>
+        <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>404</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="186">
         <v>0</v>
       </c>
       <c r="D16">
@@ -17787,152 +18215,152 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>405</v>
       </c>
-      <c r="B17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="C17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="D17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="E17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="F17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="G17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="H17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="I17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="J17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="K17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="L17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="M17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="N17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="O17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="P17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="Q17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="R17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="S17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="T17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="U17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="V17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="W17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="X17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="Y17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="Z17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="AA17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="AB17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="AC17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="AD17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="AE17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="AF17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="AG17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-      <c r="AH17">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="15">
+      <c r="B17" s="183">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="C17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="D17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="E17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="F17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="G17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="H17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="I17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="J17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="K17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="L17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="M17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="N17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="O17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="P17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="Q17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="R17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="S17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="T17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="U17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="V17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="W17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="X17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="Y17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="Z17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="AA17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="AB17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="AC17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="AD17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="AE17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="AF17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="AG17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+      <c r="AH17" s="186">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <v>14321544386446.232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>406</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="184">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="186">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
@@ -18061,15 +18489,15 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>407</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="93">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="186">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
         <v>5810700000000</v>
       </c>
@@ -18198,144 +18626,144 @@
         <v>5810700000000</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>408</v>
       </c>
-      <c r="B20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="C20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="D20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="E20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="F20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="G20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="H20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="I20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="J20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="K20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="L20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="M20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="N20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="O20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="P20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="Q20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="R20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="S20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="T20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="U20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="V20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="W20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="X20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="Y20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="Z20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="AA20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="AB20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="AC20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="AD20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="AE20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="AF20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="AG20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-      <c r="AH20" s="4">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="15">
+      <c r="B20" s="185">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="C20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="D20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="E20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="F20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="G20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="H20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="I20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="J20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="K20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="L20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="M20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="N20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="O20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="P20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="Q20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="R20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="S20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="T20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="U20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="V20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="W20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="X20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="Y20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="Z20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="AA20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="AB20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="AC20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="AD20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="AE20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="AF20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="AG20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+      <c r="AH20" s="187">
+        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+        <v>187648767.95010847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>409</v>
       </c>
@@ -18472,7 +18900,7 @@
         <v>13583444584264.561</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -18615,23 +19043,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="34" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>410</v>
       </c>
@@ -18735,150 +19163,150 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>411</v>
       </c>
       <c r="B2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="C2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="D2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="E2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="F2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="G2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="H2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="I2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="J2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="K2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="L2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="M2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="N2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="O2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="P2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="Q2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="R2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="S2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="T2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="U2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="V2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="W2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="X2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="Y2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="Z2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AA2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AB2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AC2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AD2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AE2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AF2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AG2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AH2">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>392</v>
       </c>
-      <c r="B3">
-        <f>'AEO Table 73'!D66*10^6</f>
-        <v>19706896</v>
+      <c r="B3" s="183">
+        <f>'AEO Table 73'!D66*10^6*About!$A$95</f>
+        <v>21723108.529759999</v>
       </c>
       <c r="C3">
         <f>'AEO Table 73'!E66*10^6</f>
@@ -19009,13 +19437,13 @@
         <v>19887484</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
-        <f>'AEO Table 73'!D54*10^6</f>
-        <v>1036999.9999999999</v>
+      <c r="B4" s="183">
+        <f>'AEO Table 73'!D54*10^3*About!$A$96</f>
+        <v>36621.3439</v>
       </c>
       <c r="C4">
         <f>'AEO Table 73'!E54*10^6</f>
@@ -19146,16 +19574,16 @@
         <v>1036999.9999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>412</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="183">
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
+      </c>
+      <c r="C5">
         <f t="shared" ref="B5:AH5" si="0">10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="D5">
@@ -19283,11 +19711,12 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>394</v>
       </c>
       <c r="B6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -19387,11 +19816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>395</v>
       </c>
       <c r="B7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -19491,11 +19921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>396</v>
       </c>
       <c r="B8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -19595,13 +20026,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>397</v>
       </c>
-      <c r="B9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+      <c r="B9" s="183">
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="C9">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
@@ -19732,13 +20163,13 @@
         <v>17906000</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="15">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>398</v>
       </c>
-      <c r="B10">
-        <f>'AEO Table 73'!D32*10^6/gal_per_barrel</f>
-        <v>120363.33333333333</v>
+      <c r="B10" s="183">
+        <f>'AEO Table 73'!D32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31796.64378055041</v>
       </c>
       <c r="C10">
         <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
@@ -19869,13 +20300,13 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>399</v>
       </c>
-      <c r="B11">
-        <f>'AEO Table 73'!D19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+      <c r="B11" s="183">
+        <f>'AEO Table 73'!D19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="C11">
         <f>'AEO Table 73'!E19*10^6/gal_per_barrel</f>
@@ -20006,13 +20437,13 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>400</v>
       </c>
-      <c r="B12">
-        <f>'AEO Table 73'!D29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+      <c r="B12" s="183">
+        <f>'AEO Table 73'!D29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="C12">
         <f>'AEO Table 73'!E29*10^6/gal_per_barrel</f>
@@ -20143,13 +20574,13 @@
         <v>94981.738095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>401</v>
       </c>
-      <c r="B13">
-        <f>'AEO Table 73'!D18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+      <c r="B13" s="183">
+        <f>'AEO Table 73'!D18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="C13">
         <f>'AEO Table 73'!E18*10^6/gal_per_barrel</f>
@@ -20280,13 +20711,13 @@
         <v>127595.23809523809</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>402</v>
       </c>
-      <c r="B14">
-        <f>'AEO Table 73'!D30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+      <c r="B14" s="183">
+        <f>'AEO Table 73'!D30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="C14">
         <f>'AEO Table 73'!E30*10^6/gal_per_barrel</f>
@@ -20417,148 +20848,149 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>413</v>
       </c>
       <c r="B15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="C15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="D15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="E15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="F15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="G15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="H15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="I15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="J15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="K15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="L15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="M15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="N15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="O15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="P15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="Q15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="R15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="S15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="T15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="U15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="V15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="W15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="X15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="Y15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="Z15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AA15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AB15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AC15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AD15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AE15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AF15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AG15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
       <c r="AH15">
-        <f>About!$A$67</f>
+        <f>About!$A$93</f>
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>404</v>
       </c>
       <c r="B16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C16">
@@ -20658,13 +21090,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>405</v>
       </c>
-      <c r="B17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+      <c r="B17" s="183">
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="C17">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
@@ -20795,13 +21227,13 @@
         <v>12992301.9717196</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>406</v>
       </c>
-      <c r="B18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+      <c r="B18" s="188">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="C18">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
@@ -20932,13 +21364,13 @@
         <v>5810700</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>407</v>
       </c>
-      <c r="B19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+      <c r="B19" s="189">
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="C19">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
@@ -21069,13 +21501,13 @@
         <v>5810700</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>408</v>
       </c>
-      <c r="B20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+      <c r="B20" s="183">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="C20">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
@@ -21206,13 +21638,13 @@
         <v>91410</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>409</v>
       </c>
-      <c r="B21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+      <c r="B21" s="183">
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="C21">
         <f>'GREET1 Fuel_Specs'!$D$90</f>
@@ -21343,7 +21775,7 @@
         <v>13583444.58426456</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -21482,27 +21914,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
     <col min="2" max="34" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>414</v>
       </c>
@@ -21606,7 +22039,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>415</v>
       </c>
@@ -21710,7 +22143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>416</v>
       </c>
@@ -21814,626 +22247,692 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="4">
-        <f>'AEO Table 73'!D32*10^6/gal_per_barrel</f>
-        <v>120363.33333333333</v>
+      <c r="B4" s="185">
+        <f>'AEO Table 73'!D32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51171.610701790996</v>
       </c>
       <c r="C4" s="4">
-        <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
-        <v>120379.16666666667</v>
+        <f>'AEO Table 73'!E32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51178.342130266821</v>
       </c>
       <c r="D4" s="4">
-        <f>'AEO Table 73'!F32*10^6/gal_per_barrel</f>
-        <v>120387.38095238095</v>
+        <f>'AEO Table 73'!F32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51181.834375115177</v>
       </c>
       <c r="E4" s="4">
-        <f>'AEO Table 73'!G32*10^6/gal_per_barrel</f>
-        <v>120365.73809523809</v>
+        <f>'AEO Table 73'!G32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51172.633069123418</v>
       </c>
       <c r="F4" s="4">
-        <f>'AEO Table 73'!H32*10^6/gal_per_barrel</f>
-        <v>120317.52380952382</v>
+        <f>'AEO Table 73'!H32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51152.135110230869</v>
       </c>
       <c r="G4" s="4">
-        <f>'AEO Table 73'!I32*10^6/gal_per_barrel</f>
-        <v>120257.52380952382</v>
+        <f>'AEO Table 73'!I32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51126.626539164594</v>
       </c>
       <c r="H4" s="4">
-        <f>'AEO Table 73'!J32*10^6/gal_per_barrel</f>
-        <v>120238.14285714286</v>
+        <f>'AEO Table 73'!J32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51118.38686581223</v>
       </c>
       <c r="I4" s="4">
-        <f>'AEO Table 73'!K32*10^6/gal_per_barrel</f>
-        <v>120225.69047619047</v>
+        <f>'AEO Table 73'!K32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51113.092825071093</v>
       </c>
       <c r="J4" s="4">
-        <f>'AEO Table 73'!L32*10^6/gal_per_barrel</f>
-        <v>120215.88095238095</v>
+        <f>'AEO Table 73'!L32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51108.922376150731</v>
       </c>
       <c r="K4" s="4">
-        <f>'AEO Table 73'!M32*10^6/gal_per_barrel</f>
-        <v>120205.23809523809</v>
+        <f>'AEO Table 73'!M32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51104.397641521122</v>
       </c>
       <c r="L4" s="4">
-        <f>'AEO Table 73'!N32*10^6/gal_per_barrel</f>
-        <v>120194.90476190476</v>
+        <f>'AEO Table 73'!N32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51100.004498726375</v>
       </c>
       <c r="M4" s="4">
-        <f>'AEO Table 73'!O32*10^6/gal_per_barrel</f>
-        <v>120184.57142857143</v>
+        <f>'AEO Table 73'!O32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51095.611355931629</v>
       </c>
       <c r="N4" s="4">
-        <f>'AEO Table 73'!P32*10^6/gal_per_barrel</f>
-        <v>120186.35714285714</v>
+        <f>'AEO Table 73'!P32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51096.370539594311</v>
       </c>
       <c r="O4" s="4">
-        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel</f>
-        <v>120169.33333333333</v>
+        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51089.132988676698</v>
       </c>
       <c r="P4" s="4">
-        <f>'AEO Table 73'!R32*10^6/gal_per_barrel</f>
-        <v>120159.80952380953</v>
+        <f>'AEO Table 73'!R32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51085.084009142367</v>
       </c>
       <c r="Q4" s="4">
-        <f>'AEO Table 73'!S32*10^6/gal_per_barrel</f>
-        <v>120153.90476190476</v>
+        <f>'AEO Table 73'!S32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51082.573641831084</v>
       </c>
       <c r="R4" s="4">
-        <f>'AEO Table 73'!T32*10^6/gal_per_barrel</f>
-        <v>120139.92857142857</v>
+        <f>'AEO Table 73'!T32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51076.631764364451</v>
       </c>
       <c r="S4" s="4">
-        <f>'AEO Table 73'!U32*10^6/gal_per_barrel</f>
-        <v>120123.47619047618</v>
+        <f>'AEO Table 73'!U32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51069.6371522189</v>
       </c>
       <c r="T4" s="4">
-        <f>'AEO Table 73'!V32*10^6/gal_per_barrel</f>
-        <v>120105.47619047618</v>
+        <f>'AEO Table 73'!V32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51061.984580899014</v>
       </c>
       <c r="U4" s="4">
-        <f>'AEO Table 73'!W32*10^6/gal_per_barrel</f>
-        <v>120085.26190476191</v>
+        <f>'AEO Table 73'!W32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51053.390621837403</v>
       </c>
       <c r="V4" s="4">
-        <f>'AEO Table 73'!X32*10^6/gal_per_barrel</f>
-        <v>120065.59523809524</v>
+        <f>'AEO Table 73'!X32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51045.029479099016</v>
       </c>
       <c r="W4" s="4">
-        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel</f>
-        <v>120040.19047619047</v>
+        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51034.228826191182</v>
       </c>
       <c r="X4" s="4">
-        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel</f>
-        <v>120011.85714285714</v>
+        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51022.183112076549</v>
       </c>
       <c r="Y4" s="4">
-        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel</f>
-        <v>119980</v>
+        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>51008.639275534217</v>
       </c>
       <c r="Z4" s="4">
-        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel</f>
-        <v>119949.21428571429</v>
+        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>50995.550949189499</v>
       </c>
       <c r="AA4" s="4">
-        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel</f>
-        <v>119910.09523809524</v>
+        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>50978.919765752238</v>
       </c>
       <c r="AB4" s="4">
-        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel</f>
-        <v>119871.47619047618</v>
+        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>50962.50115374053</v>
       </c>
       <c r="AC4" s="4">
-        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel</f>
-        <v>119830.30952380953</v>
+        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>50944.999439703395</v>
       </c>
       <c r="AD4" s="4">
-        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel</f>
-        <v>119784.40476190476</v>
+        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>50925.483358347927</v>
       </c>
       <c r="AE4" s="4">
-        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel</f>
-        <v>119727.33333333333</v>
+        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>50901.219848488443</v>
       </c>
       <c r="AF4" s="4">
-        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel</f>
-        <v>119664.71428571429</v>
+        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>50874.597808050232</v>
       </c>
       <c r="AG4" s="4">
-        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel</f>
-        <v>119596.14285714286</v>
+        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>50845.445155403053</v>
       </c>
       <c r="AH4" s="4">
-        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel</f>
-        <v>119596.09523809524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15">
+        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>50845.424910505382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="4">
-        <f>'AEO Table 73'!D19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+      <c r="B5" s="185">
+        <f>'AEO Table 73'!D19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="C5" s="4">
-        <f>'AEO Table 73'!E19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!E19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="D5" s="4">
-        <f>'AEO Table 73'!F19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!F19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="E5" s="4">
-        <f>'AEO Table 73'!G19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!G19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="F5" s="4">
-        <f>'AEO Table 73'!H19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!H19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="G5" s="4">
-        <f>'AEO Table 73'!I19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!I19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="H5" s="4">
-        <f>'AEO Table 73'!J19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!J19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="I5" s="4">
-        <f>'AEO Table 73'!K19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!K19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="J5" s="4">
-        <f>'AEO Table 73'!L19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!L19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="K5" s="4">
-        <f>'AEO Table 73'!M19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!M19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="L5" s="4">
-        <f>'AEO Table 73'!N19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!N19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="M5" s="4">
-        <f>'AEO Table 73'!O19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!O19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="N5" s="4">
-        <f>'AEO Table 73'!P19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!P19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="O5" s="4">
-        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="P5" s="4">
-        <f>'AEO Table 73'!R19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!R19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Q5" s="4">
-        <f>'AEO Table 73'!S19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!S19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="R5" s="4">
-        <f>'AEO Table 73'!T19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!T19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="S5" s="4">
-        <f>'AEO Table 73'!U19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!U19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="T5" s="4">
-        <f>'AEO Table 73'!V19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!V19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="U5" s="4">
-        <f>'AEO Table 73'!W19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!W19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="V5" s="4">
-        <f>'AEO Table 73'!X19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!X19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="W5" s="4">
-        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="X5" s="4">
-        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Y5" s="4">
-        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Z5" s="4">
-        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AA5" s="4">
-        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AB5" s="4">
-        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AC5" s="4">
-        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AD5" s="4">
-        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AE5" s="4">
-        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AF5" s="4">
-        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AG5" s="4">
-        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AH5" s="4">
-        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="15">
+        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>58963.264468678673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>419</v>
       </c>
       <c r="B6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="J6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="L6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="N6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="O6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="P6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="R6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="S6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="T6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="U6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="V6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="W6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="X6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Y6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Z6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AA6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AB6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AC6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AD6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AE6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AF6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AG6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>420</v>
       </c>
       <c r="B7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="J7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="L7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="N7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="O7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="P7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="R7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="S7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="T7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="U7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="V7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="W7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="X7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Y7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Z7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AA7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AB7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AC7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AD7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AE7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AF7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AG7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="15">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="4">
-        <f>'AEO Table 73'!D30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+      <c r="B8" s="185">
+        <f>'AEO Table 73'!D30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="C8" s="4">
-        <f>'AEO Table 73'!E30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!E30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="D8" s="4">
-        <f>'AEO Table 73'!F30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!F30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="E8" s="4">
-        <f>'AEO Table 73'!G30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!G30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="F8" s="4">
-        <f>'AEO Table 73'!H30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!H30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="G8" s="4">
-        <f>'AEO Table 73'!I30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!I30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="H8" s="4">
-        <f>'AEO Table 73'!J30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!J30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="I8" s="4">
-        <f>'AEO Table 73'!K30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!K30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="J8" s="4">
-        <f>'AEO Table 73'!L30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!L30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="K8" s="4">
-        <f>'AEO Table 73'!M30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!M30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="L8" s="4">
-        <f>'AEO Table 73'!N30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!N30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="M8" s="4">
-        <f>'AEO Table 73'!O30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!O30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="N8" s="4">
-        <f>'AEO Table 73'!P30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!P30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="O8" s="4">
-        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="P8" s="4">
-        <f>'AEO Table 73'!R30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!R30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Q8" s="4">
-        <f>'AEO Table 73'!S30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!S30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="R8" s="4">
-        <f>'AEO Table 73'!T30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!T30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="S8" s="4">
-        <f>'AEO Table 73'!U30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!U30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="T8" s="4">
-        <f>'AEO Table 73'!V30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!V30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="U8" s="4">
-        <f>'AEO Table 73'!W30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!W30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="V8" s="4">
-        <f>'AEO Table 73'!X30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!X30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="W8" s="4">
-        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="X8" s="4">
-        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Y8" s="4">
-        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Z8" s="4">
-        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AA8" s="4">
-        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AB8" s="4">
-        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AC8" s="4">
-        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AD8" s="4">
-        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AE8" s="4">
-        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AF8" s="4">
-        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AG8" s="4">
-        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AH8" s="4">
-        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="15">
+        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
+        <v>57394.284899125851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>422</v>
       </c>
@@ -22537,7 +23036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="15">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -22641,7 +23140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -22747,6 +23246,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22757,22 +23257,27 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>381</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>CONVERT(1, "PJ", "BTU")</f>
+        <v>947817120313.31714</v>
       </c>
     </row>
   </sheetData>
@@ -22781,34 +23286,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -22832,6 +23311,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -22918,6 +23399,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -23052,14 +23545,70 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB3DEE1-1A60-451D-9C88-73A5EDDC19C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD4553A-3FAD-49D4-A977-16BCBD6FF7EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB4D2E01-141D-4FC9-8141-3BEAB0211A2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB3DEE1-1A60-451D-9C88-73A5EDDC19C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1DC3096-7B01-4DCD-BEA5-C3D795489802}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB4D2E01-141D-4FC9-8141-3BEAB0211A2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/web-app/BCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{1B8A7001-1A9D-42BC-A0B1-892F751D4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272E2213-FE72-4B7C-BAB7-2A3D35A913A6}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{1B8A7001-1A9D-42BC-A0B1-892F751D4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9A3795-459B-4180-923B-8361B65B9F3A}"/>
   <bookViews>
-    <workbookView xWindow="-14550" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="879" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$92</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1" iterateCount="25"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,6 +41,44 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andre Dixon</author>
+  </authors>
+  <commentList>
+    <comment ref="B72" authorId="0" shapeId="0" xr:uid="{46276129-223D-4CC7-B8FC-E50BD2A6C76D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Previously:
+millions of metric tons
+(both were suggested in different contexts)
+milllion barrels of oil 
+(in the U.S. model)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Michael Wang</author>
@@ -1190,12 +1228,245 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Andre Dixon</author>
   </authors>
   <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{06DA2FA0-7FA6-47B8-A66B-3A09F32D5855}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Previously billion cubic meters: 
+=About!$A$96*'AEO Table 73'!D54*10^15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{20E9BFDF-6C26-4EB7-9913-BC6690F02E4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+When large fuel output unit was millions of metric tons, equation read: 
+='GREET1 Fuel_Specs'!$D$15*gal_per_barrel*About!$A$107/About!$A$100*10^9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F921A4A1-9424-4105-8910-11E2006FA6D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+When large fuel output unit was millions of metric tons, equation read: 
+='GREET1 Fuel_Specs'!$D$20*gal_per_barrel*About!$A$107/About!$A$101*10^9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{E1FA59C5-DD1D-4B3B-8B16-8C3C3D00A369}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+same as B10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{24EE1ECC-8D85-401B-B627-28A4D3C0BA17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+same as B11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{0736B750-A971-4881-A638-4BB7BDF2B800}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+When large fuel output unit was millions of metric tons, equation read: 
+='GREET1 Fuel_Specs'!$D$27*gal_per_barrel*About!$A$107/About!$A$102*10^9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{E52F8513-F5BA-4D6E-9D92-BAD108E013B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+When large fuel output unit was millions of metric tons, equation read: 
+='GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*10^9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{5ED81DB8-909F-4C7C-91D7-9D3752F0F8C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+When large fuel output unit was millions of metric tons, equation read: 
+='GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*10^9</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andre Dixon</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{919EC58C-5C34-4560-98C7-96271B1625A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Andre Dixon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Previously m3:
+='AEO Table 73'!D54*10^3*About!$A$96</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0" xr:uid="{DE8F962E-2B4F-4F93-A292-F69BFF5D6926}">
       <text>
         <r>
@@ -1225,7 +1496,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Andre Dixon</author>
@@ -1266,7 +1537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="444">
   <si>
     <t>BCF BTU per Small Fuel Output Unit</t>
   </si>
@@ -2573,9 +2844,6 @@
     <t>barrels/cubic meter</t>
   </si>
   <si>
-    <t>J per BTU</t>
-  </si>
-  <si>
     <t>kilometers per liter</t>
   </si>
   <si>
@@ -2588,26 +2856,26 @@
     <t>millions of metric tons</t>
   </si>
   <si>
-    <t>billion cubic meters</t>
-  </si>
-  <si>
     <t>PJ</t>
   </si>
   <si>
     <t>metric tons</t>
   </si>
   <si>
-    <t>cubic meters</t>
-  </si>
-  <si>
     <t>liters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J per BTU </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
@@ -2622,8 +2890,9 @@
     <numFmt numFmtId="175" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="176" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2914,6 +3183,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="45">
@@ -3651,7 +3926,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4009,17 +4284,20 @@
     <xf numFmtId="3" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4449,11 +4727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4622,20 +4900,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -4646,7 +4924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="176" t="s">
         <v>34</v>
       </c>
@@ -4654,7 +4932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -4662,7 +4940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -4670,7 +4948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="176" t="s">
         <v>40</v>
       </c>
@@ -4678,7 +4956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="176" t="s">
         <v>42</v>
       </c>
@@ -4686,7 +4964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="176" t="s">
         <v>44</v>
       </c>
@@ -4697,15 +4975,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="176"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -4713,7 +4991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="176" t="s">
         <v>34</v>
       </c>
@@ -4721,7 +4999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -4729,7 +5007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -4737,7 +5015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="176" t="s">
         <v>52</v>
       </c>
@@ -4745,7 +5023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="176" t="s">
         <v>54</v>
       </c>
@@ -4753,7 +5031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="176" t="s">
         <v>56</v>
       </c>
@@ -4761,29 +5039,33 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -4811,15 +5093,15 @@
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>36</v>
       </c>
-      <c r="B70" t="s">
-        <v>440</v>
+      <c r="B70" s="185" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -4835,7 +5117,7 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -4851,7 +5133,7 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C74" s="178" t="s">
         <v>46</v>
@@ -4879,7 +5161,7 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -4887,7 +5169,7 @@
         <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -4903,7 +5185,7 @@
         <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4911,7 +5193,7 @@
         <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4919,7 +5201,7 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -4929,7 +5211,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4939,7 +5221,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5058,12 +5340,18 @@
         <v>1055.06</v>
       </c>
       <c r="B109" t="s">
-        <v>435</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11714,44 +12002,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="192" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="182"/>
-      <c r="D78" s="182"/>
-      <c r="E78" s="182"/>
-      <c r="F78" s="182"/>
-      <c r="G78" s="182"/>
-      <c r="H78" s="182"/>
-      <c r="I78" s="182"/>
-      <c r="J78" s="182"/>
-      <c r="K78" s="182"/>
-      <c r="L78" s="182"/>
-      <c r="M78" s="182"/>
-      <c r="N78" s="182"/>
-      <c r="O78" s="182"/>
-      <c r="P78" s="182"/>
-      <c r="Q78" s="182"/>
-      <c r="R78" s="182"/>
-      <c r="S78" s="182"/>
-      <c r="T78" s="182"/>
-      <c r="U78" s="182"/>
-      <c r="V78" s="182"/>
-      <c r="W78" s="182"/>
-      <c r="X78" s="182"/>
-      <c r="Y78" s="182"/>
-      <c r="Z78" s="182"/>
-      <c r="AA78" s="182"/>
-      <c r="AB78" s="182"/>
-      <c r="AC78" s="182"/>
-      <c r="AD78" s="182"/>
-      <c r="AE78" s="182"/>
-      <c r="AF78" s="182"/>
-      <c r="AG78" s="182"/>
-      <c r="AH78" s="182"/>
-      <c r="AI78" s="182"/>
-      <c r="AJ78" s="182"/>
-      <c r="AK78" s="182"/>
+      <c r="C78" s="192"/>
+      <c r="D78" s="192"/>
+      <c r="E78" s="192"/>
+      <c r="F78" s="192"/>
+      <c r="G78" s="192"/>
+      <c r="H78" s="192"/>
+      <c r="I78" s="192"/>
+      <c r="J78" s="192"/>
+      <c r="K78" s="192"/>
+      <c r="L78" s="192"/>
+      <c r="M78" s="192"/>
+      <c r="N78" s="192"/>
+      <c r="O78" s="192"/>
+      <c r="P78" s="192"/>
+      <c r="Q78" s="192"/>
+      <c r="R78" s="192"/>
+      <c r="S78" s="192"/>
+      <c r="T78" s="192"/>
+      <c r="U78" s="192"/>
+      <c r="V78" s="192"/>
+      <c r="W78" s="192"/>
+      <c r="X78" s="192"/>
+      <c r="Y78" s="192"/>
+      <c r="Z78" s="192"/>
+      <c r="AA78" s="192"/>
+      <c r="AB78" s="192"/>
+      <c r="AC78" s="192"/>
+      <c r="AD78" s="192"/>
+      <c r="AE78" s="192"/>
+      <c r="AF78" s="192"/>
+      <c r="AG78" s="192"/>
+      <c r="AH78" s="192"/>
+      <c r="AI78" s="192"/>
+      <c r="AJ78" s="192"/>
+      <c r="AK78" s="192"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
@@ -11801,7 +12089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16171,21 +16459,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="34" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -16296,136 +16583,136 @@
       <c r="A2" t="s">
         <v>391</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="186">
         <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
-      <c r="C2">
-        <f>About!$A$93*10^6</f>
+      <c r="C2" s="186">
+        <f>B2</f>
         <v>3142000000000</v>
       </c>
-      <c r="D2">
-        <f>About!$A$93*10^6</f>
+      <c r="D2" s="186">
+        <f t="shared" ref="D2:AH2" si="0">C2</f>
         <v>3142000000000</v>
       </c>
-      <c r="E2">
-        <f>About!$A$93*10^6</f>
+      <c r="E2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="F2">
-        <f>About!$A$93*10^6</f>
+      <c r="F2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="G2">
-        <f>About!$A$93*10^6</f>
+      <c r="G2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="H2">
-        <f>About!$A$93*10^6</f>
+      <c r="H2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="I2">
-        <f>About!$A$93*10^6</f>
+      <c r="I2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="J2">
-        <f>About!$A$93*10^6</f>
+      <c r="J2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="K2">
-        <f>About!$A$93*10^6</f>
+      <c r="K2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="L2">
-        <f>About!$A$93*10^6</f>
+      <c r="L2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="M2">
-        <f>About!$A$93*10^6</f>
+      <c r="M2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="N2">
-        <f>About!$A$93*10^6</f>
+      <c r="N2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="O2">
-        <f>About!$A$93*10^6</f>
+      <c r="O2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="P2">
-        <f>About!$A$93*10^6</f>
+      <c r="P2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="Q2">
-        <f>About!$A$93*10^6</f>
+      <c r="Q2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="R2">
-        <f>About!$A$93*10^6</f>
+      <c r="R2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="S2">
-        <f>About!$A$93*10^6</f>
+      <c r="S2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="T2">
-        <f>About!$A$93*10^6</f>
+      <c r="T2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="U2">
-        <f>About!$A$93*10^6</f>
+      <c r="U2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="V2">
-        <f>About!$A$93*10^6</f>
+      <c r="V2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="W2">
-        <f>About!$A$93*10^6</f>
+      <c r="W2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="X2">
-        <f>About!$A$93*10^6</f>
+      <c r="X2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="Y2">
-        <f>About!$A$93*10^6</f>
+      <c r="Y2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="Z2">
-        <f>About!$A$93*10^6</f>
+      <c r="Z2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="AA2">
-        <f>About!$A$93*10^6</f>
+      <c r="AA2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="AB2">
-        <f>About!$A$93*10^6</f>
+      <c r="AB2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="AC2">
-        <f>About!$A$93*10^6</f>
+      <c r="AC2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="AD2">
-        <f>About!$A$93*10^6</f>
+      <c r="AD2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="AE2">
-        <f>About!$A$93*10^6</f>
+      <c r="AE2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="AF2">
-        <f>About!$A$93*10^6</f>
+      <c r="AF2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="AG2">
-        <f>About!$A$93*10^6</f>
+      <c r="AG2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
-      <c r="AH2">
-        <f>About!$A$93*10^6</f>
+      <c r="AH2" s="186">
+        <f t="shared" si="0"/>
         <v>3142000000000</v>
       </c>
     </row>
@@ -16433,7 +16720,7 @@
       <c r="A3" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="183">
+      <c r="B3" s="187">
         <f>About!$A$95*'AEO Table 73'!D66*10^12</f>
         <v>21723108529759.996</v>
       </c>
@@ -16570,273 +16857,273 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="183">
-        <f>About!$A$96*'AEO Table 73'!D54*10^15</f>
-        <v>3.66213439E+16</v>
+      <c r="B4" s="187">
+        <f>1/About!$A$109*10^15</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="C4" s="186">
-        <f>About!$A$96*'AEO Table 73'!E54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f>B4</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="D4" s="186">
-        <f>About!$A$96*'AEO Table 73'!F54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" ref="D4:AH12" si="1">C4</f>
+        <v>947813394498.89111</v>
       </c>
       <c r="E4" s="186">
-        <f>About!$A$96*'AEO Table 73'!G54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="F4" s="186">
-        <f>About!$A$96*'AEO Table 73'!H54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="G4" s="186">
-        <f>About!$A$96*'AEO Table 73'!I54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="H4" s="186">
-        <f>About!$A$96*'AEO Table 73'!J54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="I4" s="186">
-        <f>About!$A$96*'AEO Table 73'!K54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="J4" s="186">
-        <f>About!$A$96*'AEO Table 73'!L54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="K4" s="186">
-        <f>About!$A$96*'AEO Table 73'!M54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="L4" s="186">
-        <f>About!$A$96*'AEO Table 73'!N54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="M4" s="186">
-        <f>About!$A$96*'AEO Table 73'!O54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="N4" s="186">
-        <f>About!$A$96*'AEO Table 73'!P54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="O4" s="186">
-        <f>About!$A$96*'AEO Table 73'!Q54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="P4" s="186">
-        <f>About!$A$96*'AEO Table 73'!R54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="Q4" s="186">
-        <f>About!$A$96*'AEO Table 73'!S54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="R4" s="186">
-        <f>About!$A$96*'AEO Table 73'!T54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="S4" s="186">
-        <f>About!$A$96*'AEO Table 73'!U54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="T4" s="186">
-        <f>About!$A$96*'AEO Table 73'!V54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="U4" s="186">
-        <f>About!$A$96*'AEO Table 73'!W54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="V4" s="186">
-        <f>About!$A$96*'AEO Table 73'!X54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="W4" s="186">
-        <f>About!$A$96*'AEO Table 73'!Y54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="X4" s="186">
-        <f>About!$A$96*'AEO Table 73'!Z54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="Y4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AA54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="Z4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AB54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="AA4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AC54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="AB4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AD54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="AC4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AE54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="AD4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AF54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="AE4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AG54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="AF4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AH54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="AG4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AI54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
       <c r="AH4" s="186">
-        <f>About!$A$96*'AEO Table 73'!AJ54*10^15</f>
-        <v>3.66213439E+16</v>
+        <f t="shared" si="1"/>
+        <v>947813394498.89111</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>393</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="187">
         <f>1000/About!$A$109*10^12</f>
         <v>947813394498.89111</v>
       </c>
       <c r="C5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" ref="C5:R22" si="2">B5</f>
         <v>947813394498.89111</v>
       </c>
       <c r="D5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="E5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="F5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="G5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="H5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="I5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="J5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="K5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="L5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="M5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="N5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="O5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="P5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="Q5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="R5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="2"/>
         <v>947813394498.89111</v>
       </c>
       <c r="S5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="T5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="U5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="V5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="W5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="X5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="Y5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="Z5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="AA5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="AB5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="AC5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="AD5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="AE5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="AF5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="AG5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
       <c r="AH5" s="186">
-        <f>1000/About!$A$109*10^12</f>
+        <f t="shared" si="1"/>
         <v>947813394498.89111</v>
       </c>
     </row>
@@ -16844,103 +17131,136 @@
       <c r="A6" t="s">
         <v>394</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="186">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
+      <c r="B6" s="191">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="191">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16948,103 +17268,136 @@
       <c r="A7" t="s">
         <v>395</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="186">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
+      <c r="B7" s="191">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="191">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17052,103 +17405,136 @@
       <c r="A8" t="s">
         <v>396</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="186">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
+      <c r="B8" s="191">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="191">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="191">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17156,136 +17542,136 @@
       <c r="A9" t="s">
         <v>397</v>
       </c>
-      <c r="B9" s="183">
+      <c r="B9" s="187">
         <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
         <v>19737962860000</v>
       </c>
       <c r="C9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="2"/>
         <v>19737962860000</v>
       </c>
       <c r="D9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="E9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="F9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="G9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="H9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="I9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="J9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="K9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="L9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="M9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="N9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="O9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="P9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="Q9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="R9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="S9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="T9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="U9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="V9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="W9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="X9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="Y9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="Z9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="AA9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="AB9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="AC9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="AD9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="AE9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="AF9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="AG9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
       <c r="AH9" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
+        <f t="shared" si="1"/>
         <v>19737962860000</v>
       </c>
     </row>
@@ -17293,821 +17679,821 @@
       <c r="A10" t="s">
         <v>398</v>
       </c>
-      <c r="B10" s="184">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+      <c r="B10" s="188">
+        <f>'GREET1 Fuel_Specs'!$D$15/About!$A$98</f>
+        <v>32847.168470522345</v>
       </c>
       <c r="C10" s="186">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="D10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="E10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="F10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="G10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="H10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="I10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="J10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="K10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="L10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="M10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="N10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="O10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="P10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Q10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="R10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="S10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="T10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="U10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="V10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="W10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="X10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Y10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Z10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AA10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AB10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AC10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AD10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AE10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AF10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AG10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AH10">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+        <f t="shared" si="2"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="D10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="E10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="F10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="G10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="H10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="I10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="J10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="K10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="L10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="M10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="N10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="O10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="P10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="Q10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="R10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="S10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="T10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="U10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="V10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="W10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="X10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="Y10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="Z10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AA10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AB10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AC10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AD10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AE10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AF10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AG10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AH10" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>399</v>
       </c>
-      <c r="B11" s="92">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+      <c r="B11" s="189">
+        <f>'GREET1 Fuel_Specs'!$D$20/About!$A$98</f>
+        <v>36291.973656750524</v>
       </c>
       <c r="C11" s="186">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="D11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="E11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="F11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="G11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="H11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="I11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="J11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="K11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="L11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="M11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="N11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="O11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="P11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Q11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="R11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="S11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="T11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="U11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="V11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="W11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="X11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Y11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Z11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AA11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AB11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AC11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AD11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AE11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AF11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AG11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AH11">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+        <f t="shared" si="2"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="D11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="E11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="F11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="G11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="H11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="I11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="J11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="K11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="L11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="M11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="N11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="O11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="P11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="Q11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="R11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="S11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="T11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="U11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="V11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="W11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="X11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="Y11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="Z11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AA11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AB11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AC11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AD11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AE11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AF11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AG11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AH11" s="186">
+        <f t="shared" si="1"/>
+        <v>36291.973656750524</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>400</v>
       </c>
-      <c r="B12" s="92">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+      <c r="B12" s="189">
+        <f>'GREET1 Fuel_Specs'!$D$15/About!$A$98</f>
+        <v>32847.168470522345</v>
       </c>
       <c r="C12" s="186">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="D12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="E12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="F12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="G12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="H12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="I12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="J12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="K12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="L12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="M12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="N12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="O12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="P12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Q12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="R12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="S12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="T12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="U12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="V12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="W12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="X12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Y12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Z12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AA12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AB12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AC12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AD12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AE12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AF12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AG12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AH12">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+        <f t="shared" si="2"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="D12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="E12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="F12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="G12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="H12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="I12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="J12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="K12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="L12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="M12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="N12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="O12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="P12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="Q12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="R12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="S12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="T12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="U12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="V12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="W12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="X12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="Y12" s="186">
+        <f t="shared" si="1"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="Z12" s="186">
+        <f t="shared" ref="D12:AH20" si="3">Y12</f>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AA12" s="186">
+        <f t="shared" si="3"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AB12" s="186">
+        <f t="shared" si="3"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AC12" s="186">
+        <f t="shared" si="3"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AD12" s="186">
+        <f t="shared" si="3"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AE12" s="186">
+        <f t="shared" si="3"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AF12" s="186">
+        <f t="shared" si="3"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AG12" s="186">
+        <f t="shared" si="3"/>
+        <v>32847.168470522345</v>
+      </c>
+      <c r="AH12" s="186">
+        <f t="shared" si="3"/>
+        <v>32847.168470522345</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>401</v>
       </c>
-      <c r="B13" s="92">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+      <c r="B13" s="189">
+        <f>'GREET1 Fuel_Specs'!$D$20/About!$A$98</f>
+        <v>36291.973656750524</v>
       </c>
       <c r="C13" s="186">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="D13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="E13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="F13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="G13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="H13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="I13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="J13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="K13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="L13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="M13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="N13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="O13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="P13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Q13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="R13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="S13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="T13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="U13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="V13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="W13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="X13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Y13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Z13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AA13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AB13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AC13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AD13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AE13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AF13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AG13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AH13">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+        <f t="shared" si="2"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="D13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="E13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="F13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="G13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="H13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="I13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="J13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="K13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="L13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="M13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="N13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="O13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="P13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="Q13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="R13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="S13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="T13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="U13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="V13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="W13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="X13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="Y13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="Z13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AA13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AB13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AC13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AD13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AE13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AF13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AG13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
+      </c>
+      <c r="AH13" s="186">
+        <f t="shared" si="3"/>
+        <v>36291.973656750524</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>402</v>
       </c>
-      <c r="B14" s="93">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+      <c r="B14" s="190">
+        <f>'GREET1 Fuel_Specs'!$D$27/About!$A$98</f>
+        <v>34763.709690237556</v>
       </c>
       <c r="C14" s="186">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="D14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="E14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="F14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="G14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="H14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="I14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="J14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="K14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="L14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="M14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="N14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="O14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="P14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Q14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="R14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="S14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="T14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="U14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="V14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="W14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="X14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Y14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Z14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AA14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AB14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AC14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AD14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AE14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AF14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AG14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AH14">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+        <f t="shared" si="2"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="D14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="E14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="F14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="G14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="H14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="I14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="J14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="K14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="L14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="M14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="N14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="O14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="P14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="Q14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="R14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="S14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="T14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="U14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="V14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="W14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="X14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="Y14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="Z14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="AA14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="AB14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="AC14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="AD14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="AE14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="AF14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="AG14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
+      </c>
+      <c r="AH14" s="186">
+        <f t="shared" si="3"/>
+        <v>34763.709690237556</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>403</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="186">
         <f>About!$A$93*10^6</f>
         <v>3142000000000</v>
       </c>
       <c r="C15" s="186">
-        <f>About!$A$93*10^6</f>
+        <f t="shared" si="2"/>
         <v>3142000000000</v>
       </c>
-      <c r="D15">
-        <f>About!$A$93*10^6</f>
+      <c r="D15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="E15">
-        <f>About!$A$93*10^6</f>
+      <c r="E15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="F15">
-        <f>About!$A$93*10^6</f>
+      <c r="F15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="G15">
-        <f>About!$A$93*10^6</f>
+      <c r="G15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="H15">
-        <f>About!$A$93*10^6</f>
+      <c r="H15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="I15">
-        <f>About!$A$93*10^6</f>
+      <c r="I15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="J15">
-        <f>About!$A$93*10^6</f>
+      <c r="J15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="K15">
-        <f>About!$A$93*10^6</f>
+      <c r="K15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="L15">
-        <f>About!$A$93*10^6</f>
+      <c r="L15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="M15">
-        <f>About!$A$93*10^6</f>
+      <c r="M15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="N15">
-        <f>About!$A$93*10^6</f>
+      <c r="N15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="O15">
-        <f>About!$A$93*10^6</f>
+      <c r="O15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="P15">
-        <f>About!$A$93*10^6</f>
+      <c r="P15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="Q15">
-        <f>About!$A$93*10^6</f>
+      <c r="Q15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="R15">
-        <f>About!$A$93*10^6</f>
+      <c r="R15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="S15">
-        <f>About!$A$93*10^6</f>
+      <c r="S15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="T15">
-        <f>About!$A$93*10^6</f>
+      <c r="T15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="U15">
-        <f>About!$A$93*10^6</f>
+      <c r="U15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="V15">
-        <f>About!$A$93*10^6</f>
+      <c r="V15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="W15">
-        <f>About!$A$93*10^6</f>
+      <c r="W15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="X15">
-        <f>About!$A$93*10^6</f>
+      <c r="X15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="Y15">
-        <f>About!$A$93*10^6</f>
+      <c r="Y15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="Z15">
-        <f>About!$A$93*10^6</f>
+      <c r="Z15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="AA15">
-        <f>About!$A$93*10^6</f>
+      <c r="AA15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="AB15">
-        <f>About!$A$93*10^6</f>
+      <c r="AB15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="AC15">
-        <f>About!$A$93*10^6</f>
+      <c r="AC15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="AD15">
-        <f>About!$A$93*10^6</f>
+      <c r="AD15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="AE15">
-        <f>About!$A$93*10^6</f>
+      <c r="AE15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="AF15">
-        <f>About!$A$93*10^6</f>
+      <c r="AF15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="AG15">
-        <f>About!$A$93*10^6</f>
+      <c r="AG15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
-      <c r="AH15">
-        <f>About!$A$93*10^6</f>
+      <c r="AH15" s="186">
+        <f t="shared" si="3"/>
         <v>3142000000000</v>
       </c>
     </row>
@@ -18115,103 +18501,136 @@
       <c r="A16" t="s">
         <v>404</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="186">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
+      <c r="B16" s="191">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="191">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -18219,136 +18638,136 @@
       <c r="A17" t="s">
         <v>405</v>
       </c>
-      <c r="B17" s="183">
+      <c r="B17" s="187">
         <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
         <v>14321544386446.232</v>
       </c>
       <c r="C17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="2"/>
         <v>14321544386446.232</v>
       </c>
       <c r="D17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="E17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="F17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="G17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="H17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="I17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="J17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="K17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="L17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="M17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="N17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="O17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="P17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="Q17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="R17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="S17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="T17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="U17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="V17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="W17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="X17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="Y17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="Z17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="AA17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="AB17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="AC17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="AD17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="AE17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="AF17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="AG17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
       <c r="AH17" s="186">
-        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
+        <f t="shared" si="3"/>
         <v>14321544386446.232</v>
       </c>
     </row>
@@ -18356,410 +18775,410 @@
       <c r="A18" t="s">
         <v>406</v>
       </c>
-      <c r="B18" s="184">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+      <c r="B18" s="188">
+        <f>'GREET1 Fuel_Specs'!$D$7/About!$A$98</f>
+        <v>36548.220668302769</v>
       </c>
       <c r="C18" s="186">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="D18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="E18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="F18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="G18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="H18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="I18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="J18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="K18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="L18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="M18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="N18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="O18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="P18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Q18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="R18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="S18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="T18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="U18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="V18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="W18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="X18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Y18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Z18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AA18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AB18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AC18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AD18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AE18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AF18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AG18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AH18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+        <f t="shared" si="2"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="D18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="E18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="F18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="G18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="H18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="I18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="J18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="K18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="L18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="M18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="N18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="O18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="P18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="Q18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="R18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="S18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="T18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="U18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="V18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="W18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="X18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="Y18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="Z18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AA18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AB18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AC18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AD18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AE18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AF18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AG18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AH18" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>407</v>
       </c>
-      <c r="B19" s="93">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+      <c r="B19" s="190">
+        <f>'GREET1 Fuel_Specs'!$D$7/About!$A$98</f>
+        <v>36548.220668302769</v>
       </c>
       <c r="C19" s="186">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="D19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="E19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="F19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="G19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="H19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="I19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="J19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="K19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="L19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="M19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="N19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="O19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="P19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Q19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="R19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="S19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="T19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="U19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="V19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="W19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="X19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Y19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="Z19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AA19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AB19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AC19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AD19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AE19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AF19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AG19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
-      </c>
-      <c r="AH19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*10^6</f>
-        <v>5810700000000</v>
+        <f t="shared" si="2"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="D19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="E19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="F19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="G19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="H19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="I19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="J19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="K19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="L19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="M19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="N19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="O19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="P19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="Q19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="R19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="S19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="T19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="U19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="V19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="W19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="X19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="Y19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="Z19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AA19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AB19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AC19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AD19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AE19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AF19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AG19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
+      </c>
+      <c r="AH19" s="186">
+        <f t="shared" si="3"/>
+        <v>36548.220668302769</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>408</v>
       </c>
-      <c r="B20" s="185">
+      <c r="B20" s="187">
         <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
         <v>187648767.95010847</v>
       </c>
-      <c r="C20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="C20" s="186">
+        <f t="shared" si="2"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="D20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="D20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="E20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="E20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="F20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="F20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="G20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="G20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="H20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="H20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="I20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="I20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="J20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="J20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="K20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="K20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="L20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="L20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="M20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="M20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="N20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="N20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="O20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="O20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="P20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="P20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="Q20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="Q20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="R20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="R20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="S20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="S20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="T20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="T20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="U20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="U20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="V20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="V20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="W20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="W20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="X20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="X20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="Y20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="Y20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="Z20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="Z20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="AA20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="AA20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="AB20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="AB20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="AC20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="AC20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="AD20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="AD20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="AE20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="AE20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="AF20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="AF20" s="186">
+        <f t="shared" si="3"/>
         <v>187648767.95010847</v>
       </c>
-      <c r="AG20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="AG20" s="186">
+        <f t="shared" ref="D20:AH22" si="4">AF20</f>
         <v>187648767.95010847</v>
       </c>
-      <c r="AH20" s="187">
-        <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
+      <c r="AH20" s="186">
+        <f t="shared" si="4"/>
         <v>187648767.95010847</v>
       </c>
     </row>
@@ -18767,278 +19186,279 @@
       <c r="A21" t="s">
         <v>409</v>
       </c>
-      <c r="B21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="C21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="D21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="E21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="F21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="G21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="H21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="I21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="J21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="K21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="L21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="M21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="N21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="O21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="P21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="Q21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="R21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="S21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="T21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="U21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="V21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="W21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="X21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="Y21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="Z21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="AA21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="AB21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="AC21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="AD21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="AE21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="AF21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="AG21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-      <c r="AH21">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+      <c r="B21" s="187">
+        <f>About!$A$95*'GREET1 Fuel_Specs'!$D$90*10^6</f>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="C21" s="186">
+        <f t="shared" si="2"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="D21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="E21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="F21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="G21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="H21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="I21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="J21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="K21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="L21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="M21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="N21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="O21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="P21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="Q21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="R21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="S21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="T21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="U21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="V21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="W21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="X21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="Y21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="Z21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="AA21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="AB21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="AC21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="AD21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="AE21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="AF21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="AG21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
+      </c>
+      <c r="AH21" s="186">
+        <f t="shared" si="4"/>
+        <v>14973166799680.666</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="181">
+      <c r="B22" s="186">
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
         <v>134509803921.56865</v>
       </c>
-      <c r="C22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="C22" s="186">
+        <f t="shared" si="2"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="D22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="D22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="E22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="E22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="F22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="F22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="G22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="G22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="H22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="H22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="I22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="I22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="J22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="J22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="K22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="K22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="L22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="L22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="M22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="M22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="N22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="N22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="O22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="O22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="P22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="P22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="Q22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="Q22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="R22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="R22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="S22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="S22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="T22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="T22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="U22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="U22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="V22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="V22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="W22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="W22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="X22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="X22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="Y22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="Y22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="Z22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="Z22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="AA22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="AA22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="AB22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="AB22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="AC22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="AC22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="AD22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="AD22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="AE22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="AE22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="AF22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="AF22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="AG22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="AG22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
-      <c r="AH22" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
+      <c r="AH22" s="186">
+        <f t="shared" si="4"/>
         <v>134509803921.56865</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19050,7 +19470,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19304,411 +19724,411 @@
       <c r="A3" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="183">
+      <c r="B3" s="181">
         <f>'AEO Table 73'!D66*10^6*About!$A$95</f>
         <v>21723108.529759999</v>
       </c>
       <c r="C3">
-        <f>'AEO Table 73'!E66*10^6</f>
-        <v>19588093</v>
+        <f>'AEO Table 73'!E66*10^6*About!$A$95</f>
+        <v>21592150.794829998</v>
       </c>
       <c r="D3">
-        <f>'AEO Table 73'!F66*10^6</f>
-        <v>19676338</v>
+        <f>'AEO Table 73'!F66*10^6*About!$A$95</f>
+        <v>21689424.140779998</v>
       </c>
       <c r="E3">
-        <f>'AEO Table 73'!G66*10^6</f>
-        <v>19593861</v>
+        <f>'AEO Table 73'!G66*10^6*About!$A$95</f>
+        <v>21598508.918909997</v>
       </c>
       <c r="F3">
-        <f>'AEO Table 73'!H66*10^6</f>
-        <v>19763271</v>
+        <f>'AEO Table 73'!H66*10^6*About!$A$95</f>
+        <v>21785251.25601</v>
       </c>
       <c r="G3">
-        <f>'AEO Table 73'!I66*10^6</f>
-        <v>19874037</v>
+        <f>'AEO Table 73'!I66*10^6*About!$A$95</f>
+        <v>21907349.725469999</v>
       </c>
       <c r="H3">
-        <f>'AEO Table 73'!J66*10^6</f>
-        <v>19832983</v>
+        <f>'AEO Table 73'!J66*10^6*About!$A$95</f>
+        <v>21862095.490729999</v>
       </c>
       <c r="I3">
-        <f>'AEO Table 73'!K66*10^6</f>
-        <v>19854052</v>
+        <f>'AEO Table 73'!K66*10^6*About!$A$95</f>
+        <v>21885320.060119998</v>
       </c>
       <c r="J3">
-        <f>'AEO Table 73'!L66*10^6</f>
-        <v>19849159</v>
+        <f>'AEO Table 73'!L66*10^6*About!$A$95</f>
+        <v>21879926.457289997</v>
       </c>
       <c r="K3">
-        <f>'AEO Table 73'!M66*10^6</f>
-        <v>19841606</v>
+        <f>'AEO Table 73'!M66*10^6*About!$A$95</f>
+        <v>21871600.709859997</v>
       </c>
       <c r="L3">
-        <f>'AEO Table 73'!N66*10^6</f>
-        <v>19838451</v>
+        <f>'AEO Table 73'!N66*10^6*About!$A$95</f>
+        <v>21868122.921809997</v>
       </c>
       <c r="M3">
-        <f>'AEO Table 73'!O66*10^6</f>
-        <v>19782232</v>
+        <f>'AEO Table 73'!O66*10^6*About!$A$95</f>
+        <v>21806152.155919999</v>
       </c>
       <c r="N3">
-        <f>'AEO Table 73'!P66*10^6</f>
-        <v>19750866</v>
+        <f>'AEO Table 73'!P66*10^6*About!$A$95</f>
+        <v>21771577.100459997</v>
       </c>
       <c r="O3">
-        <f>'AEO Table 73'!Q66*10^6</f>
-        <v>19757530</v>
+        <f>'AEO Table 73'!Q66*10^6*About!$A$95</f>
+        <v>21778922.894299999</v>
       </c>
       <c r="P3">
-        <f>'AEO Table 73'!R66*10^6</f>
-        <v>19792145</v>
+        <f>'AEO Table 73'!R66*10^6*About!$A$95</f>
+        <v>21817079.35495</v>
       </c>
       <c r="Q3">
-        <f>'AEO Table 73'!S66*10^6</f>
-        <v>19787580</v>
+        <f>'AEO Table 73'!S66*10^6*About!$A$95</f>
+        <v>21812047.309799999</v>
       </c>
       <c r="R3">
-        <f>'AEO Table 73'!T66*10^6</f>
-        <v>19792101</v>
+        <f>'AEO Table 73'!T66*10^6*About!$A$95</f>
+        <v>21817030.853309996</v>
       </c>
       <c r="S3">
-        <f>'AEO Table 73'!U66*10^6</f>
-        <v>19801369</v>
+        <f>'AEO Table 73'!U66*10^6*About!$A$95</f>
+        <v>21827247.06239</v>
       </c>
       <c r="T3">
-        <f>'AEO Table 73'!V66*10^6</f>
-        <v>19790552</v>
+        <f>'AEO Table 73'!V66*10^6*About!$A$95</f>
+        <v>21815323.375119999</v>
       </c>
       <c r="U3">
-        <f>'AEO Table 73'!W66*10^6</f>
-        <v>19813770</v>
+        <f>'AEO Table 73'!W66*10^6*About!$A$95</f>
+        <v>21840916.808699999</v>
       </c>
       <c r="V3">
-        <f>'AEO Table 73'!X66*10^6</f>
-        <v>19823812</v>
+        <f>'AEO Table 73'!X66*10^6*About!$A$95</f>
+        <v>21851986.205719996</v>
       </c>
       <c r="W3">
-        <f>'AEO Table 73'!Y66*10^6</f>
-        <v>19819962</v>
+        <f>'AEO Table 73'!Y66*10^6*About!$A$95</f>
+        <v>21847742.31222</v>
       </c>
       <c r="X3">
-        <f>'AEO Table 73'!Z66*10^6</f>
-        <v>19817593</v>
+        <f>'AEO Table 73'!Z66*10^6*About!$A$95</f>
+        <v>21845130.939829998</v>
       </c>
       <c r="Y3">
-        <f>'AEO Table 73'!AA66*10^6</f>
-        <v>19814734</v>
+        <f>'AEO Table 73'!AA66*10^6*About!$A$95</f>
+        <v>21841979.435539998</v>
       </c>
       <c r="Z3">
-        <f>'AEO Table 73'!AB66*10^6</f>
-        <v>19808729</v>
+        <f>'AEO Table 73'!AB66*10^6*About!$A$95</f>
+        <v>21835360.063989997</v>
       </c>
       <c r="AA3">
-        <f>'AEO Table 73'!AC66*10^6</f>
-        <v>19816940</v>
+        <f>'AEO Table 73'!AC66*10^6*About!$A$95</f>
+        <v>21844411.131399997</v>
       </c>
       <c r="AB3">
-        <f>'AEO Table 73'!AD66*10^6</f>
-        <v>19822159</v>
+        <f>'AEO Table 73'!AD66*10^6*About!$A$95</f>
+        <v>21850164.087289996</v>
       </c>
       <c r="AC3">
-        <f>'AEO Table 73'!AE66*10^6</f>
-        <v>19832388</v>
+        <f>'AEO Table 73'!AE66*10^6*About!$A$95</f>
+        <v>21861439.616279997</v>
       </c>
       <c r="AD3">
-        <f>'AEO Table 73'!AF66*10^6</f>
-        <v>19856539</v>
+        <f>'AEO Table 73'!AF66*10^6*About!$A$95</f>
+        <v>21888061.505089998</v>
       </c>
       <c r="AE3">
-        <f>'AEO Table 73'!AG66*10^6</f>
-        <v>19880623</v>
+        <f>'AEO Table 73'!AG66*10^6*About!$A$95</f>
+        <v>21914609.539129999</v>
       </c>
       <c r="AF3">
-        <f>'AEO Table 73'!AH66*10^6</f>
-        <v>19899242</v>
+        <f>'AEO Table 73'!AH66*10^6*About!$A$95</f>
+        <v>21935133.449019998</v>
       </c>
       <c r="AG3">
-        <f>'AEO Table 73'!AI66*10^6</f>
-        <v>19884989</v>
+        <f>'AEO Table 73'!AI66*10^6*About!$A$95</f>
+        <v>21919422.22459</v>
       </c>
       <c r="AH3">
-        <f>'AEO Table 73'!AJ66*10^6</f>
-        <v>19887484</v>
+        <f>'AEO Table 73'!AJ66*10^6*About!$A$95</f>
+        <v>21922172.488039996</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="183">
-        <f>'AEO Table 73'!D54*10^3*About!$A$96</f>
-        <v>36621.3439</v>
+      <c r="B4" s="181">
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="C4">
-        <f>'AEO Table 73'!E54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="D4">
-        <f>'AEO Table 73'!F54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="E4">
-        <f>'AEO Table 73'!G54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="F4">
-        <f>'AEO Table 73'!H54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="G4">
-        <f>'AEO Table 73'!I54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="H4">
-        <f>'AEO Table 73'!J54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="I4">
-        <f>'AEO Table 73'!K54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="J4">
-        <f>'AEO Table 73'!L54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="K4">
-        <f>'AEO Table 73'!M54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="L4">
-        <f>'AEO Table 73'!N54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="M4">
-        <f>'AEO Table 73'!O54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="N4">
-        <f>'AEO Table 73'!P54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="O4">
-        <f>'AEO Table 73'!Q54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="P4">
-        <f>'AEO Table 73'!R54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="Q4">
-        <f>'AEO Table 73'!S54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="R4">
-        <f>'AEO Table 73'!T54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="S4">
-        <f>'AEO Table 73'!U54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="T4">
-        <f>'AEO Table 73'!V54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="U4">
-        <f>'AEO Table 73'!W54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="V4">
-        <f>'AEO Table 73'!X54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="W4">
-        <f>'AEO Table 73'!Y54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="X4">
-        <f>'AEO Table 73'!Z54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="Y4">
-        <f>'AEO Table 73'!AA54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="Z4">
-        <f>'AEO Table 73'!AB54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="AA4">
-        <f>'AEO Table 73'!AC54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="AB4">
-        <f>'AEO Table 73'!AD54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="AC4">
-        <f>'AEO Table 73'!AE54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="AD4">
-        <f>'AEO Table 73'!AF54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="AE4">
-        <f>'AEO Table 73'!AG54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="AF4">
-        <f>'AEO Table 73'!AH54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="AG4">
-        <f>'AEO Table 73'!AI54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
       <c r="AH4">
-        <f>'AEO Table 73'!AJ54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>1/About!$A$109*10^6</f>
+        <v>947.81339449889106</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>412</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="181">
         <f>10^6/About!$A$109*10^3</f>
         <v>947813.39449889108</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="B5:AH5" si="0">10^6</f>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
+        <f>10^6/About!$A$109*10^3</f>
+        <v>947813.39449889108</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -19720,99 +20140,131 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="J6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="L6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="N6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="O6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="P6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="R6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="S6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="T6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="U6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="V6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="W6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="X6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Y6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Z6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AA6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AB6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AC6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AD6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AE6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AF6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AG6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AH6">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
@@ -19825,99 +20277,131 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="J7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="L7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="N7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="O7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="P7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="R7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="S7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="T7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="U7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="V7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="W7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="X7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Y7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Z7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AA7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AB7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AC7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AD7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AE7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AF7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AG7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AH7">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
@@ -19930,99 +20414,131 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="J8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="L8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="N8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="O8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="P8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="R8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="S8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="T8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="U8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="V8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="W8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="X8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Y8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Z8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AA8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AB8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AC8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AD8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AE8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AF8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AG8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AH8">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
@@ -20030,822 +20546,822 @@
       <c r="A9" t="s">
         <v>397</v>
       </c>
-      <c r="B9" s="183">
+      <c r="B9" s="181">
         <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
         <v>19737962.859999999</v>
       </c>
       <c r="C9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="D9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="E9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="F9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="G9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="H9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="I9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="J9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="K9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="L9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="M9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="N9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="O9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="P9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Q9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="R9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="S9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="T9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="U9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="V9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="W9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="X9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Y9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Z9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AA9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AB9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AC9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AD9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AE9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AF9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AG9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AH9">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
+        <v>19737962.859999999</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>398</v>
       </c>
-      <c r="B10" s="183">
+      <c r="B10" s="181">
         <f>'AEO Table 73'!D32*10^6/gal_per_barrel/About!$A$98</f>
         <v>31796.64378055041</v>
       </c>
       <c r="C10">
-        <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
-        <v>120379.16666666667</v>
+        <f>'AEO Table 73'!E32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31800.826506683996</v>
       </c>
       <c r="D10">
-        <f>'AEO Table 73'!F32*10^6/gal_per_barrel</f>
-        <v>120387.38095238095</v>
+        <f>'AEO Table 73'!F32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31802.99649242247</v>
       </c>
       <c r="E10">
-        <f>'AEO Table 73'!G32*10^6/gal_per_barrel</f>
-        <v>120365.73809523809</v>
+        <f>'AEO Table 73'!G32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31797.279051737616</v>
       </c>
       <c r="F10">
-        <f>'AEO Table 73'!H32*10^6/gal_per_barrel</f>
-        <v>120317.52380952382</v>
+        <f>'AEO Table 73'!H32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31784.542178924821</v>
       </c>
       <c r="G10">
-        <f>'AEO Table 73'!I32*10^6/gal_per_barrel</f>
-        <v>120257.52380952382</v>
+        <f>'AEO Table 73'!I32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31768.691848313341</v>
       </c>
       <c r="H10">
-        <f>'AEO Table 73'!J32*10^6/gal_per_barrel</f>
-        <v>120238.14285714286</v>
+        <f>'AEO Table 73'!J32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31763.571939933285</v>
       </c>
       <c r="I10">
-        <f>'AEO Table 73'!K32*10^6/gal_per_barrel</f>
-        <v>120225.69047619047</v>
+        <f>'AEO Table 73'!K32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31760.282367350028</v>
       </c>
       <c r="J10">
-        <f>'AEO Table 73'!L32*10^6/gal_per_barrel</f>
-        <v>120215.88095238095</v>
+        <f>'AEO Table 73'!L32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31757.690964091325</v>
       </c>
       <c r="K10">
-        <f>'AEO Table 73'!M32*10^6/gal_per_barrel</f>
-        <v>120205.23809523809</v>
+        <f>'AEO Table 73'!M32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31754.879417351909</v>
       </c>
       <c r="L10">
-        <f>'AEO Table 73'!N32*10^6/gal_per_barrel</f>
-        <v>120194.90476190476</v>
+        <f>'AEO Table 73'!N32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31752.149638191044</v>
       </c>
       <c r="M10">
-        <f>'AEO Table 73'!O32*10^6/gal_per_barrel</f>
-        <v>120184.57142857143</v>
+        <f>'AEO Table 73'!O32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31749.419859030178</v>
       </c>
       <c r="N10">
-        <f>'AEO Table 73'!P32*10^6/gal_per_barrel</f>
-        <v>120186.35714285714</v>
+        <f>'AEO Table 73'!P32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31749.891595060282</v>
       </c>
       <c r="O10">
-        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel</f>
-        <v>120169.33333333333</v>
+        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31745.394378239958</v>
       </c>
       <c r="P10">
-        <f>'AEO Table 73'!R32*10^6/gal_per_barrel</f>
-        <v>120159.80952380953</v>
+        <f>'AEO Table 73'!R32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31742.878452746074</v>
       </c>
       <c r="Q10">
-        <f>'AEO Table 73'!S32*10^6/gal_per_barrel</f>
-        <v>120153.90476190476</v>
+        <f>'AEO Table 73'!S32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31741.318578939867</v>
       </c>
       <c r="R10">
-        <f>'AEO Table 73'!T32*10^6/gal_per_barrel</f>
-        <v>120139.92857142857</v>
+        <f>'AEO Table 73'!T32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31737.626458277588</v>
       </c>
       <c r="S10">
-        <f>'AEO Table 73'!U32*10^6/gal_per_barrel</f>
-        <v>120123.47619047618</v>
+        <f>'AEO Table 73'!U32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31733.2801969869</v>
       </c>
       <c r="T10">
-        <f>'AEO Table 73'!V32*10^6/gal_per_barrel</f>
-        <v>120105.47619047618</v>
+        <f>'AEO Table 73'!V32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31728.525097803456</v>
       </c>
       <c r="U10">
-        <f>'AEO Table 73'!W32*10^6/gal_per_barrel</f>
-        <v>120085.26190476191</v>
+        <f>'AEO Table 73'!W32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31723.185045942686</v>
       </c>
       <c r="V10">
-        <f>'AEO Table 73'!X32*10^6/gal_per_barrel</f>
-        <v>120065.59523809524</v>
+        <f>'AEO Table 73'!X32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31717.989659797811</v>
       </c>
       <c r="W10">
-        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel</f>
-        <v>120040.19047619047</v>
+        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31711.278428542872</v>
       </c>
       <c r="X10">
-        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel</f>
-        <v>120011.85714285714</v>
+        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31703.793550198563</v>
       </c>
       <c r="Y10">
-        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel</f>
-        <v>119980</v>
+        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31695.377779421513</v>
       </c>
       <c r="Z10">
-        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel</f>
-        <v>119949.21428571429</v>
+        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31687.245050262529</v>
       </c>
       <c r="AA10">
-        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel</f>
-        <v>119910.09523809524</v>
+        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31676.910886296395</v>
       </c>
       <c r="AB10">
-        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel</f>
-        <v>119871.47619047618</v>
+        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31666.708808418687</v>
       </c>
       <c r="AC10">
-        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel</f>
-        <v>119830.30952380953</v>
+        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31655.833720471368</v>
       </c>
       <c r="AD10">
-        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel</f>
-        <v>119784.40476190476</v>
+        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31643.70695959084</v>
       </c>
       <c r="AE10">
-        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel</f>
-        <v>119727.33333333333</v>
+        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31628.630276068729</v>
       </c>
       <c r="AF10">
-        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel</f>
-        <v>119664.71428571429</v>
+        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31612.088065946431</v>
       </c>
       <c r="AG10">
-        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel</f>
-        <v>119596.14285714286</v>
+        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31593.973402390453</v>
       </c>
       <c r="AH10">
-        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel</f>
-        <v>119596.09523809524</v>
+        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel/About!$A$98</f>
+        <v>31593.960822762987</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>399</v>
       </c>
-      <c r="B11" s="183">
+      <c r="B11" s="181">
         <f>'AEO Table 73'!D19*10^6/gal_per_barrel/About!$A$98</f>
         <v>36638.165004709183</v>
       </c>
       <c r="C11">
-        <f>'AEO Table 73'!E19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!E19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="D11">
-        <f>'AEO Table 73'!F19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!F19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="E11">
-        <f>'AEO Table 73'!G19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!G19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="F11">
-        <f>'AEO Table 73'!H19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!H19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="G11">
-        <f>'AEO Table 73'!I19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!I19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="H11">
-        <f>'AEO Table 73'!J19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!J19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="I11">
-        <f>'AEO Table 73'!K19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!K19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="J11">
-        <f>'AEO Table 73'!L19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!L19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="K11">
-        <f>'AEO Table 73'!M19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!M19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="L11">
-        <f>'AEO Table 73'!N19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!N19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="M11">
-        <f>'AEO Table 73'!O19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!O19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="N11">
-        <f>'AEO Table 73'!P19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!P19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="O11">
-        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="P11">
-        <f>'AEO Table 73'!R19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!R19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="Q11">
-        <f>'AEO Table 73'!S19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!S19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="R11">
-        <f>'AEO Table 73'!T19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!T19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="S11">
-        <f>'AEO Table 73'!U19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!U19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="T11">
-        <f>'AEO Table 73'!V19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!V19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="U11">
-        <f>'AEO Table 73'!W19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!W19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="V11">
-        <f>'AEO Table 73'!X19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!X19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="W11">
-        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="X11">
-        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="Y11">
-        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="Z11">
-        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="AA11">
-        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="AB11">
-        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="AC11">
-        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="AD11">
-        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="AE11">
-        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="AF11">
-        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="AG11">
-        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
       <c r="AH11">
-        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel/About!$A$98</f>
+        <v>36638.165004709183</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>400</v>
       </c>
-      <c r="B12" s="183">
+      <c r="B12" s="181">
         <f>'AEO Table 73'!D29*10^6/gal_per_barrel/About!$A$98</f>
         <v>25091.532514374423</v>
       </c>
       <c r="C12">
-        <f>'AEO Table 73'!E29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!E29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="D12">
-        <f>'AEO Table 73'!F29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!F29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="E12">
-        <f>'AEO Table 73'!G29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!G29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="F12">
-        <f>'AEO Table 73'!H29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!H29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="G12">
-        <f>'AEO Table 73'!I29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!I29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="H12">
-        <f>'AEO Table 73'!J29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!J29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="I12">
-        <f>'AEO Table 73'!K29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!K29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="J12">
-        <f>'AEO Table 73'!L29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!L29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="K12">
-        <f>'AEO Table 73'!M29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!M29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="L12">
-        <f>'AEO Table 73'!N29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!N29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="M12">
-        <f>'AEO Table 73'!O29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!O29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="N12">
-        <f>'AEO Table 73'!P29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!P29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="O12">
-        <f>'AEO Table 73'!Q29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!Q29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="P12">
-        <f>'AEO Table 73'!R29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!R29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="Q12">
-        <f>'AEO Table 73'!S29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!S29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="R12">
-        <f>'AEO Table 73'!T29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!T29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="S12">
-        <f>'AEO Table 73'!U29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!U29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="T12">
-        <f>'AEO Table 73'!V29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!V29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="U12">
-        <f>'AEO Table 73'!W29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!W29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="V12">
-        <f>'AEO Table 73'!X29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!X29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="W12">
-        <f>'AEO Table 73'!Y29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!Y29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="X12">
-        <f>'AEO Table 73'!Z29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!Z29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="Y12">
-        <f>'AEO Table 73'!AA29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AA29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="Z12">
-        <f>'AEO Table 73'!AB29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AB29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="AA12">
-        <f>'AEO Table 73'!AC29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AC29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="AB12">
-        <f>'AEO Table 73'!AD29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AD29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="AC12">
-        <f>'AEO Table 73'!AE29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AE29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="AD12">
-        <f>'AEO Table 73'!AF29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AF29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="AE12">
-        <f>'AEO Table 73'!AG29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AG29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="AF12">
-        <f>'AEO Table 73'!AH29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AH29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="AG12">
-        <f>'AEO Table 73'!AI29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AI29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
       <c r="AH12">
-        <f>'AEO Table 73'!AJ29*10^6/gal_per_barrel</f>
-        <v>94981.738095238092</v>
+        <f>'AEO Table 73'!AJ29*10^6/gal_per_barrel/About!$A$98</f>
+        <v>25091.532514374423</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>401</v>
       </c>
-      <c r="B13" s="183">
+      <c r="B13" s="181">
         <f>'AEO Table 73'!D18*10^6/gal_per_barrel/About!$A$98</f>
         <v>33707.111804332446</v>
       </c>
       <c r="C13">
-        <f>'AEO Table 73'!E18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!E18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="D13">
-        <f>'AEO Table 73'!F18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!F18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="E13">
-        <f>'AEO Table 73'!G18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!G18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="F13">
-        <f>'AEO Table 73'!H18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!H18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="G13">
-        <f>'AEO Table 73'!I18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!I18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="H13">
-        <f>'AEO Table 73'!J18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!J18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="I13">
-        <f>'AEO Table 73'!K18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!K18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="J13">
-        <f>'AEO Table 73'!L18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!L18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="K13">
-        <f>'AEO Table 73'!M18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!M18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="L13">
-        <f>'AEO Table 73'!N18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!N18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="M13">
-        <f>'AEO Table 73'!O18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!O18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="N13">
-        <f>'AEO Table 73'!P18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!P18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="O13">
-        <f>'AEO Table 73'!Q18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!Q18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="P13">
-        <f>'AEO Table 73'!R18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!R18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="Q13">
-        <f>'AEO Table 73'!S18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!S18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="R13">
-        <f>'AEO Table 73'!T18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!T18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="S13">
-        <f>'AEO Table 73'!U18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!U18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="T13">
-        <f>'AEO Table 73'!V18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!V18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="U13">
-        <f>'AEO Table 73'!W18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!W18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="V13">
-        <f>'AEO Table 73'!X18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!X18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="W13">
-        <f>'AEO Table 73'!Y18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!Y18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="X13">
-        <f>'AEO Table 73'!Z18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!Z18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="Y13">
-        <f>'AEO Table 73'!AA18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AA18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="Z13">
-        <f>'AEO Table 73'!AB18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AB18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="AA13">
-        <f>'AEO Table 73'!AC18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AC18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="AB13">
-        <f>'AEO Table 73'!AD18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AD18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="AC13">
-        <f>'AEO Table 73'!AE18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AE18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="AD13">
-        <f>'AEO Table 73'!AF18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AF18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="AE13">
-        <f>'AEO Table 73'!AG18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AG18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="AF13">
-        <f>'AEO Table 73'!AH18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AH18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="AG13">
-        <f>'AEO Table 73'!AI18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AI18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
       <c r="AH13">
-        <f>'AEO Table 73'!AJ18*10^6/gal_per_barrel</f>
-        <v>127595.23809523809</v>
+        <f>'AEO Table 73'!AJ18*10^6/gal_per_barrel/About!$A$98</f>
+        <v>33707.111804332446</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>402</v>
       </c>
-      <c r="B14" s="183">
+      <c r="B14" s="181">
         <f>'AEO Table 73'!D30*10^6/gal_per_barrel/About!$A$98</f>
         <v>35663.243875828506</v>
       </c>
       <c r="C14">
-        <f>'AEO Table 73'!E30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!E30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="D14">
-        <f>'AEO Table 73'!F30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!F30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="E14">
-        <f>'AEO Table 73'!G30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!G30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="F14">
-        <f>'AEO Table 73'!H30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!H30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="G14">
-        <f>'AEO Table 73'!I30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!I30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="H14">
-        <f>'AEO Table 73'!J30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!J30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="I14">
-        <f>'AEO Table 73'!K30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!K30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="J14">
-        <f>'AEO Table 73'!L30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!L30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="K14">
-        <f>'AEO Table 73'!M30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!M30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="L14">
-        <f>'AEO Table 73'!N30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!N30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="M14">
-        <f>'AEO Table 73'!O30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!O30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="N14">
-        <f>'AEO Table 73'!P30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!P30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="O14">
-        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="P14">
-        <f>'AEO Table 73'!R30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!R30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="Q14">
-        <f>'AEO Table 73'!S30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!S30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="R14">
-        <f>'AEO Table 73'!T30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!T30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="S14">
-        <f>'AEO Table 73'!U30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!U30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="T14">
-        <f>'AEO Table 73'!V30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!V30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="U14">
-        <f>'AEO Table 73'!W30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!W30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="V14">
-        <f>'AEO Table 73'!X30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!X30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="W14">
-        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="X14">
-        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="Y14">
-        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="Z14">
-        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="AA14">
-        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="AB14">
-        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="AC14">
-        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="AD14">
-        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="AE14">
-        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="AF14">
-        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="AG14">
-        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
       <c r="AH14">
-        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel/About!$A$98</f>
+        <v>35663.243875828506</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -20994,99 +21510,131 @@
         <v>0</v>
       </c>
       <c r="C16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="J16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="L16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="N16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="O16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="P16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="R16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="S16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="T16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="U16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="V16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="W16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="X16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Y16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Z16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AA16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AB16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AC16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AD16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AE16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AF16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AG16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="AH16">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
@@ -21094,685 +21642,685 @@
       <c r="A17" t="s">
         <v>405</v>
       </c>
-      <c r="B17" s="183">
+      <c r="B17" s="181">
         <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
         <v>14321544.386446232</v>
       </c>
       <c r="C17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="D17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="E17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="F17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="G17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="H17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="I17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="J17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="K17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="L17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="M17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="N17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="O17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="P17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Q17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="R17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="S17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="T17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="U17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="V17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="W17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="X17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Y17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Z17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AA17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AB17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AC17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AD17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AE17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AF17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AG17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AH17">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
+        <v>14321544.386446232</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>406</v>
       </c>
-      <c r="B18" s="188">
+      <c r="B18" s="183">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
         <v>41486155.505107835</v>
       </c>
       <c r="C18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="D18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="E18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="F18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="G18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="H18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="I18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="J18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="K18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="L18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="M18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="N18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="O18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="P18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="Q18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="R18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="S18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="T18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="U18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="V18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="W18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="X18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="Y18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="Z18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="AA18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="AB18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="AC18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="AD18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="AE18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="AF18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="AG18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
       <c r="AH18">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
+        <v>41486155.505107835</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>407</v>
       </c>
-      <c r="B19" s="189">
+      <c r="B19" s="184">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
         <v>40385970.165745854</v>
       </c>
       <c r="C19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="D19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="E19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="F19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="G19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="H19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="I19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="J19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="K19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="L19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="M19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="N19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="O19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="P19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="Q19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="R19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="S19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="T19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="U19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="V19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="W19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="X19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="Y19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="Z19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="AA19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="AB19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="AC19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="AD19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="AE19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="AF19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="AG19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
       <c r="AH19">
-        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel</f>
-        <v>5810700</v>
+        <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
+        <v>40385970.165745854</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>408</v>
       </c>
-      <c r="B20" s="183">
+      <c r="B20" s="181">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
         <v>346024.32810000004</v>
       </c>
       <c r="C20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="D20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="E20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="F20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="G20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="H20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="I20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="J20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="K20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="L20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="M20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="N20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="O20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="P20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="Q20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="R20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="S20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="T20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="U20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="V20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="W20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="X20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="Y20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="Z20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="AA20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="AB20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="AC20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="AD20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="AE20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="AF20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="AG20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
       <c r="AH20">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
+        <v>346024.32810000004</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>409</v>
       </c>
-      <c r="B21" s="183">
+      <c r="B21" s="181">
         <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
         <v>14973166.799680665</v>
       </c>
       <c r="C21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="D21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="E21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="F21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="G21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="H21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="I21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="J21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="K21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="L21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="M21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="N21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="O21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="P21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Q21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="R21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="S21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="T21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="U21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="V21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="W21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="X21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Y21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Z21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AA21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AB21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AC21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AD21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AE21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AF21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AG21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AH21">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
+        <v>14973166.799680665</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
@@ -21926,7 +22474,7 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22251,7 +22799,7 @@
       <c r="A4" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="185">
+      <c r="B4" s="182">
         <f>'AEO Table 73'!D32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
         <v>51171.610701790996</v>
       </c>
@@ -22388,7 +22936,7 @@
       <c r="A5" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="185">
+      <c r="B5" s="182">
         <f>'AEO Table 73'!D19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
         <v>58963.264468678673</v>
       </c>
@@ -22799,7 +23347,7 @@
       <c r="A8" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="185">
+      <c r="B8" s="182">
         <f>'AEO Table 73'!D30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
         <v>57394.284899125851</v>
       </c>
@@ -23286,6 +23834,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -23545,26 +24113,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -23575,6 +24123,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB3DEE1-1A60-451D-9C88-73A5EDDC19C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD4553A-3FAD-49D4-A977-16BCBD6FF7EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23594,17 +24153,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB3DEE1-1A60-451D-9C88-73A5EDDC19C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB4D2E01-141D-4FC9-8141-3BEAB0211A2D}">
   <ds:schemaRefs>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26301"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/web-app/BCF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="13_ncr:1_{1B8A7001-1A9D-42BC-A0B1-892F751D4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9A3795-459B-4180-923B-8361B65B9F3A}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="13_ncr:1_{1B8A7001-1A9D-42BC-A0B1-892F751D4320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72DF4B5F-9DE5-416E-ABCF-0A1D93475179}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1440,6 +1441,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Andre Dixon</author>
+    <author>Coleman Vollrath</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{919EC58C-5C34-4560-98C7-96271B1625A1}">
@@ -1467,6 +1469,17 @@
         </r>
       </text>
     </comment>
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{00C93672-599A-4CDA-BB45-30F8C52991F3}">
+      <text>
+        <t>Coleman Vollrath:
+million btu/bbl *
+10^6 to convert to btu/bbl
+/ gal/bbl
+/ L/gal
+* 1000 L/m3
+/ GJ/m3 of fuel</t>
+      </text>
+    </comment>
     <comment ref="B18" authorId="0" shapeId="0" xr:uid="{DE8F962E-2B4F-4F93-A292-F69BFF5D6926}">
       <text>
         <r>
@@ -1490,6 +1503,16 @@
 (BTU/gallon) * (gallon/barrel) * (barrel/cubic meter) / (kg/cubic meter) * (kg/metric ton) = BTU/metric ton
 Mexico version uses AEO Table 73 rather than GREET1 Fuel_Specs</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{DA9E8C07-AF52-48FA-9C4E-DF9EF750ABCA}">
+      <text>
+        <t>Coleman Vollrath:
+btu/gal
+/ L/gal
+* 1000 L/m3
+/ GJ/m3 of fuel
+--averaged propane and butane</t>
       </text>
     </comment>
   </commentList>
@@ -1537,7 +1560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="449">
   <si>
     <t>BCF BTU per Small Fuel Output Unit</t>
   </si>
@@ -1722,6 +1745,27 @@
     <t>Energy Import Export Output Unit</t>
   </si>
   <si>
+    <t>In the Canadian model:</t>
+  </si>
+  <si>
+    <t>millions of metric tons</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>metric tons</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>kilometers per liter</t>
+  </si>
+  <si>
     <t>Relevant Conversion Factors</t>
   </si>
   <si>
@@ -1731,6 +1775,63 @@
     <t>BTU/MWh (pure unit conversion, not a heat rate)</t>
   </si>
   <si>
+    <t>short tons per metric ton</t>
+  </si>
+  <si>
+    <t>cubic feet per cubic meter</t>
+  </si>
+  <si>
+    <t>kilometers per mile</t>
+  </si>
+  <si>
+    <t>liters per gallon</t>
+  </si>
+  <si>
+    <t>Gasoline kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Diesel 2D kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Kerosene (jet fuel) kg/cubic meter</t>
+  </si>
+  <si>
+    <t>crude oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>heavy fuel oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>liter LPG/metric ton</t>
+  </si>
+  <si>
+    <t>barrels/cubic meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J per BTU </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Jet Fuel GJ/cubic meter</t>
+  </si>
+  <si>
+    <t>Diesel GJ/cubic meter</t>
+  </si>
+  <si>
+    <t>Motor Gasoline GJ/cubic meter</t>
+  </si>
+  <si>
+    <t>Propane GJ/cubic meter</t>
+  </si>
+  <si>
+    <t>Butane GJ/cubic meter</t>
+  </si>
+  <si>
+    <t>Source: https://apps.cer-rec.gc.ca/Conversion/conversion-tables.aspx?GoCTemplateCulture=en-CA</t>
+  </si>
+  <si>
     <t>ref2019.d111618a</t>
   </si>
   <si>
@@ -2673,9 +2774,6 @@
     <t>kJ</t>
   </si>
   <si>
-    <t>MJ</t>
-  </si>
-  <si>
     <t>Wh</t>
   </si>
   <si>
@@ -2809,66 +2907,6 @@
   </si>
   <si>
     <t>Energy Import Export Output Unit (BTU/energy output unit)</t>
-  </si>
-  <si>
-    <t>short tons per metric ton</t>
-  </si>
-  <si>
-    <t>cubic feet per cubic meter</t>
-  </si>
-  <si>
-    <t>kilometers per mile</t>
-  </si>
-  <si>
-    <t>liters per gallon</t>
-  </si>
-  <si>
-    <t>Gasoline kg/cubic meter</t>
-  </si>
-  <si>
-    <t>Diesel 2D kg/cubic meter</t>
-  </si>
-  <si>
-    <t>Kerosene (jet fuel) kg/cubic meter</t>
-  </si>
-  <si>
-    <t>crude oil kg/cubic meter</t>
-  </si>
-  <si>
-    <t>heavy fuel oil kg/cubic meter</t>
-  </si>
-  <si>
-    <t>liter LPG/metric ton</t>
-  </si>
-  <si>
-    <t>barrels/cubic meter</t>
-  </si>
-  <si>
-    <t>kilometers per liter</t>
-  </si>
-  <si>
-    <t>GJ</t>
-  </si>
-  <si>
-    <t>In the Canadian model:</t>
-  </si>
-  <si>
-    <t>millions of metric tons</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>metric tons</t>
-  </si>
-  <si>
-    <t>liters</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">J per BTU </t>
   </si>
 </sst>
 </file>
@@ -2876,23 +2914,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="15">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="178" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3923,7 +3961,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="193">
@@ -3933,11 +3971,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="54"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="54" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="54" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3949,7 +3987,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="56">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="56" applyFont="1">
@@ -3980,7 +4018,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3995,14 +4033,14 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4011,77 +4049,77 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="23" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="34" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="34" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="35" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="36" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="36" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="35" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="35" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="33" fillId="38" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="33" fillId="38" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="26" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="26" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="32" fillId="0" borderId="27" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="27" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="34" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="39" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="38" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="33" fillId="36" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="26" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="38" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="33" fillId="38" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="33" fillId="40" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="30" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="33" fillId="38" borderId="30" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="33" fillId="38" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="33" fillId="38" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4147,19 +4185,19 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4177,34 +4215,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4222,40 +4260,43 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4267,9 +4308,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
@@ -4278,24 +4316,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="0" borderId="17" xfId="56" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4728,44 +4766,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4774,146 +4812,146 @@
       </c>
       <c r="C6" s="177"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="B8" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="B13" s="173" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="177"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="B15" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -4924,7 +4962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="28.9" hidden="1">
       <c r="A42" s="176" t="s">
         <v>34</v>
       </c>
@@ -4932,7 +4970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -4940,7 +4978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -4948,7 +4986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="43.15" hidden="1">
       <c r="A45" s="176" t="s">
         <v>40</v>
       </c>
@@ -4956,7 +4994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1">
       <c r="A46" s="176" t="s">
         <v>42</v>
       </c>
@@ -4964,7 +5002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1">
       <c r="A47" s="176" t="s">
         <v>44</v>
       </c>
@@ -4975,15 +5013,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1">
       <c r="A48" s="176"/>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -4991,7 +5029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="28.9" hidden="1">
       <c r="A51" s="176" t="s">
         <v>34</v>
       </c>
@@ -4999,7 +5037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -5007,7 +5045,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -5015,7 +5053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="43.15" hidden="1">
       <c r="A54" s="176" t="s">
         <v>52</v>
       </c>
@@ -5023,7 +5061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1">
       <c r="A55" s="176" t="s">
         <v>54</v>
       </c>
@@ -5031,7 +5069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1">
       <c r="A56" s="176" t="s">
         <v>56</v>
       </c>
@@ -5039,45 +5077,45 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1"/>
+    <row r="58" spans="1:2" hidden="1">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1">
       <c r="A59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1"/>
+    <row r="61" spans="1:2" hidden="1">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1">
       <c r="A62" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1"/>
+    <row r="64" spans="1:2" hidden="1"/>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="174" t="s">
         <v>30</v>
       </c>
       <c r="B67" s="175"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -5088,23 +5126,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="28.9">
       <c r="A69" s="176" t="s">
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>36</v>
       </c>
       <c r="B70" s="185" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -5112,15 +5150,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="43.15">
       <c r="A72" s="176" t="s">
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="176" t="s">
         <v>42</v>
       </c>
@@ -5128,27 +5166,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="176" t="s">
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>439</v>
+        <v>63</v>
       </c>
       <c r="C74" s="178" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="176"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="174" t="s">
         <v>47</v>
       </c>
       <c r="B76" s="175"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>31</v>
       </c>
@@ -5156,23 +5194,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="28.9">
       <c r="A78" s="176" t="s">
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -5180,172 +5218,215 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="43.15">
       <c r="A81" s="176" t="s">
         <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="176" t="s">
         <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="176" t="s">
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="174" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="174" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="173" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B91" s="177"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
         <f>3.142*10^6</f>
         <v>3142000</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>1.1023099999999999</v>
       </c>
       <c r="B95" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>35.314700000000002</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>1.60934</v>
       </c>
       <c r="B97" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>3.7854100000000002</v>
       </c>
       <c r="B98" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>748</v>
       </c>
       <c r="B100" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>849</v>
       </c>
       <c r="B101" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>808</v>
       </c>
       <c r="B102" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>881</v>
       </c>
       <c r="B103" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>905</v>
       </c>
       <c r="B104" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>1844</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>6.29</v>
       </c>
       <c r="B107" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>1055.06</v>
       </c>
       <c r="B109" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="B110" t="s">
-        <v>442</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>38.68</v>
+      </c>
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>25.53</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>28.62</v>
+      </c>
+      <c r="B115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5360,22 +5441,22 @@
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
       <selection pane="topRight" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="20.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="16" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C1" s="14">
         <v>2017</v>
@@ -5480,10 +5561,10 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1">
       <c r="C3" s="18" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>7</v>
@@ -5492,167 +5573,167 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15" customHeight="1">
       <c r="C4" s="18" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1">
       <c r="C5" s="18" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15" customHeight="1">
       <c r="C6" s="18" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="15" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1">
       <c r="B11" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1">
       <c r="B12" s="16" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="Y12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AA12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AB12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AC12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AE12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AF12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AG12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AH12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AI12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AJ12" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AK12" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
       <c r="B13" s="14" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C13" s="14">
         <v>2017</v>
@@ -5760,22 +5841,22 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1">
       <c r="B14" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C16" s="12">
         <v>6.6360000000000001</v>
@@ -5883,12 +5964,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="15" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C17" s="12">
         <v>5.048</v>
@@ -5996,12 +6077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="15" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C18" s="12">
         <v>5.359</v>
@@ -6109,12 +6190,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C19" s="12">
         <v>5.8250000000000002</v>
@@ -6222,12 +6303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C20" s="12">
         <v>5.7746510000000004</v>
@@ -6335,12 +6416,12 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="15" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C21" s="12">
         <v>5.7746510000000004</v>
@@ -6448,12 +6529,12 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C22" s="12">
         <v>5.7746510000000004</v>
@@ -6561,12 +6642,12 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C23" s="12">
         <v>5.7746510000000004</v>
@@ -6674,12 +6755,12 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="15" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C24" s="12">
         <v>5.7746510000000004</v>
@@ -6787,12 +6868,12 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="15" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C25" s="12">
         <v>5.7746510000000004</v>
@@ -6900,12 +6981,12 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="15" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C26" s="12">
         <v>5.8170000000000002</v>
@@ -7013,12 +7094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="15" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C27" s="12">
         <v>5.77</v>
@@ -7126,12 +7207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="15" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C28" s="12">
         <v>3.556</v>
@@ -7239,12 +7320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="15" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C29" s="12">
         <v>3.99722</v>
@@ -7352,12 +7433,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="15" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C30" s="12">
         <v>5.67</v>
@@ -7465,12 +7546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" ht="15" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C31" s="12">
         <v>6.0650000000000004</v>
@@ -7578,12 +7659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" ht="15" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C32" s="12">
         <v>5.0566430000000002</v>
@@ -7691,12 +7772,12 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C33" s="12">
         <v>5.0566430000000002</v>
@@ -7804,12 +7885,12 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C34" s="12">
         <v>5.0566430000000002</v>
@@ -7917,12 +7998,12 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" ht="15" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C35" s="12">
         <v>5.2222799999999996</v>
@@ -8030,12 +8111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" ht="15" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C36" s="12">
         <v>5.2222799999999996</v>
@@ -8143,12 +8224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" ht="15" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C37" s="12">
         <v>4.62</v>
@@ -8256,12 +8337,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" ht="15" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C38" s="12">
         <v>5.8</v>
@@ -8369,12 +8450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" ht="15" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C39" s="12">
         <v>5.4510759999999996</v>
@@ -8482,12 +8563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" ht="15" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C40" s="12">
         <v>6.2869999999999999</v>
@@ -8595,12 +8676,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" ht="15" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C41" s="12">
         <v>6.2869999999999999</v>
@@ -8708,12 +8789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" ht="15" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C42" s="12">
         <v>6.2869999999999999</v>
@@ -8821,12 +8902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" ht="15" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C43" s="12">
         <v>6.1473459999999998</v>
@@ -8934,12 +9015,12 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" ht="15" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C44" s="12">
         <v>5.1759979999999999</v>
@@ -9047,12 +9128,12 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" ht="15" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C45" s="12">
         <v>5.5967529999999996</v>
@@ -9160,12 +9241,12 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" ht="15" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C46" s="12">
         <v>5.1509999999999998</v>
@@ -9273,17 +9354,17 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="15" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C48" s="12">
         <v>5.7229999999999999</v>
@@ -9391,12 +9472,12 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" ht="15" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C49" s="12">
         <v>6.05</v>
@@ -9504,12 +9585,12 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" ht="15" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C50" s="12">
         <v>5.7380000000000004</v>
@@ -9617,12 +9698,12 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="15" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C51" s="12">
         <v>3.6994319999999998</v>
@@ -9730,17 +9811,17 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" ht="15" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C54" s="12">
         <v>1.0369999999999999</v>
@@ -9848,12 +9929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" ht="15" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C55" s="12">
         <v>1.0329999999999999</v>
@@ -9961,12 +10042,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" ht="15" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="C56" s="12">
         <v>1.0389999999999999</v>
@@ -10074,12 +10155,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" ht="15" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C57" s="12">
         <v>1.0369999999999999</v>
@@ -10187,12 +10268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" ht="15" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C58" s="12">
         <v>1.0249999999999999</v>
@@ -10300,12 +10381,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" ht="15" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="C59" s="12">
         <v>1.0089999999999999</v>
@@ -10413,12 +10494,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" ht="15" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C60" s="12">
         <v>0.96</v>
@@ -10526,17 +10607,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="15" customHeight="1">
       <c r="B62" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" ht="15" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C63" s="9">
         <v>20.537140000000001</v>
@@ -10644,12 +10725,12 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" ht="15" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C64" s="9">
         <v>25.416302000000002</v>
@@ -10757,12 +10838,12 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" ht="15" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C65" s="9">
         <v>17.234355999999998</v>
@@ -10870,12 +10951,12 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" ht="15" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C66" s="9">
         <v>19.437477000000001</v>
@@ -10983,12 +11064,12 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" ht="15" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C67" s="9">
         <v>20.319486999999999</v>
@@ -11096,12 +11177,12 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" ht="15" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C68" s="9">
         <v>20.775822000000002</v>
@@ -11209,12 +11290,12 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" ht="15" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="C69" s="9">
         <v>28.674879000000001</v>
@@ -11322,12 +11403,12 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" ht="15" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C70" s="9">
         <v>18.994087</v>
@@ -11435,12 +11516,12 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" ht="15" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C71" s="9">
         <v>22.116496999999999</v>
@@ -11548,12 +11629,12 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" ht="15" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="C72" s="9">
         <v>26.218889000000001</v>
@@ -11661,12 +11742,12 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" ht="15" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C73" s="9">
         <v>0</v>
@@ -11771,15 +11852,15 @@
         <v>0</v>
       </c>
       <c r="AK73" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" ht="15" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C74" s="9">
         <v>12.941471999999999</v>
@@ -11887,12 +11968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="15" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C76" s="180">
         <v>3412</v>
@@ -12000,10 +12081,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1">
       <c r="B78" s="192" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="C78" s="192"/>
       <c r="D78" s="192"/>
@@ -12041,39 +12122,39 @@
       <c r="AJ78" s="192"/>
       <c r="AK78" s="192"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="15" customHeight="1">
       <c r="B79" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" ht="15" customHeight="1">
       <c r="B80" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="15" customHeight="1">
       <c r="B81" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="15" customHeight="1">
       <c r="B82" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="15" customHeight="1">
       <c r="B83" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="15" customHeight="1">
       <c r="B84" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="15" customHeight="1">
       <c r="B85" s="6" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -12089,93 +12170,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.44140625" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.6">
       <c r="A1" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="12.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:23" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="27">
       <c r="A4" s="26"/>
       <c r="B4" s="27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="31" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="34"/>
@@ -12184,30 +12265,30 @@
       <c r="H5" s="34"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="36" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="41" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B7" s="42">
         <v>129670</v>
@@ -12234,9 +12315,9 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="41" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B8" s="42">
         <v>135084.91292306196</v>
@@ -12263,9 +12344,9 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="41" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="B9" s="42">
         <v>152370.90134048002</v>
@@ -12292,9 +12373,9 @@
         <v>0.93500000000000016</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="41" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B10" s="42">
         <v>152370.90134048002</v>
@@ -12321,9 +12402,9 @@
         <v>0.93500000000000016</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="41" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B11" s="42">
         <v>145194.18901496602</v>
@@ -12358,9 +12439,9 @@
       <c r="R11" s="46"/>
       <c r="S11" s="52"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="41" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B12" s="42">
         <v>128448.52692210001</v>
@@ -12387,9 +12468,9 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="B13" s="42">
         <v>125600.90733399388</v>
@@ -12416,9 +12497,9 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B14" s="42">
         <v>122492.60888766299</v>
@@ -12445,9 +12526,9 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="41" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="B15" s="42">
         <v>116090</v>
@@ -12482,9 +12563,9 @@
       <c r="V15" s="57"/>
       <c r="W15" s="53"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="41" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="B16" s="42">
         <v>112193.52</v>
@@ -12516,9 +12597,9 @@
       <c r="V16" s="57"/>
       <c r="W16" s="53"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="41" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="B17" s="42">
         <v>112193.52</v>
@@ -12553,9 +12634,9 @@
       <c r="V17" s="57"/>
       <c r="W17" s="53"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="41" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B18" s="42">
         <v>106150</v>
@@ -12587,9 +12668,9 @@
       <c r="V18" s="57"/>
       <c r="W18" s="53"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="41" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="B19" s="42">
         <v>100186</v>
@@ -12621,9 +12702,9 @@
       <c r="M19" s="57"/>
       <c r="N19" s="53"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="41" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="B20" s="42">
         <v>128450</v>
@@ -12651,9 +12732,9 @@
       </c>
       <c r="W20" s="53"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="59" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="B21" s="42">
         <v>129487.84757606639</v>
@@ -12678,9 +12759,9 @@
       </c>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="41" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B22" s="42">
         <v>128450</v>
@@ -12707,9 +12788,9 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="41" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="B23" s="42">
         <v>129487.84757606639</v>
@@ -12736,9 +12817,9 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="41" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="B24" s="42">
         <v>116920</v>
@@ -12765,9 +12846,9 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" s="41" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="B25" s="42">
         <v>118237.434842673</v>
@@ -12794,9 +12875,9 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" s="41" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B26" s="42">
         <v>124307.03423937227</v>
@@ -12823,9 +12904,9 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" s="41" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="B27" s="42">
         <v>123041.23110601204</v>
@@ -12852,9 +12933,9 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" s="41" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="B28" s="42">
         <v>111520</v>
@@ -12881,9 +12962,9 @@
         <v>0.93135126106564226</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" s="41" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="B29" s="42">
         <v>140352.52220119376</v>
@@ -12910,9 +12991,9 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" s="41" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B30" s="42">
         <v>140352.52220119376</v>
@@ -12939,9 +13020,9 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" s="41" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B31" s="42">
         <v>57250</v>
@@ -12968,9 +13049,9 @@
         <v>0.87806748466257667</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" s="41" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B32" s="42">
         <v>76330</v>
@@ -12997,9 +13078,9 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="41" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="B33" s="42">
         <v>99837</v>
@@ -13026,9 +13107,9 @@
         <v>0.92051300964428628</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="41" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B34" s="42">
         <v>83127</v>
@@ -13055,9 +13136,9 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="41" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="B35" s="42">
         <v>116090</v>
@@ -13084,9 +13165,9 @@
         <v>0.93364967025896739</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="41" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B36" s="42">
         <v>84950</v>
@@ -13113,9 +13194,9 @@
         <v>0.9293293950333662</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="41" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="B37" s="42">
         <v>74720</v>
@@ -13142,9 +13223,9 @@
         <v>0.88092431030417351</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="41" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B38" s="42">
         <v>68930</v>
@@ -13171,9 +13252,9 @@
         <v>0.91165189789710355</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="41" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B39" s="42">
         <v>72200</v>
@@ -13200,9 +13281,9 @@
         <v>0.91165189789710355</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="41" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B40" s="42">
         <v>119550</v>
@@ -13229,9 +13310,9 @@
         <v>0.93427633635511098</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="41" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B41" s="42">
         <v>123670</v>
@@ -13258,9 +13339,9 @@
         <v>0.95108821041298164</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="41" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B42" s="42">
         <v>117059</v>
@@ -13287,9 +13368,9 @@
         <v>0.93427633635511098</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="41" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="B43" s="42">
         <v>122887</v>
@@ -13316,9 +13397,9 @@
         <v>0.93938096730547249</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="41" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B44" s="42">
         <v>123542.426446789</v>
@@ -13345,9 +13426,9 @@
         <v>0.92840083590406852</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="B45" s="42">
         <v>115983</v>
@@ -13374,9 +13455,9 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="41" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B46" s="42">
         <v>113309</v>
@@ -13403,9 +13484,9 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="41" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="B47" s="42">
         <v>112060.7</v>
@@ -13432,9 +13513,9 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="41" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B48" s="42">
         <v>119776.6214942081</v>
@@ -13461,9 +13542,9 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="41" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="B49" s="42">
         <v>30500</v>
@@ -13490,9 +13571,9 @@
         <v>0.84675180455302612</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="41" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B50" s="42">
         <v>93540</v>
@@ -13519,9 +13600,9 @@
         <v>0.92494808662118067</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="41" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="B51" s="42">
         <v>96720</v>
@@ -13548,9 +13629,9 @@
         <v>0.92528460728977324</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="41" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B52" s="42">
         <v>100480</v>
@@ -13577,9 +13658,9 @@
         <v>0.92548586165607438</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="41" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="B53" s="42">
         <v>94970</v>
@@ -13606,9 +13687,9 @@
         <v>0.92007362914163926</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="41" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B54" s="42">
         <v>90060</v>
@@ -13635,9 +13716,9 @@
         <v>0.91375811688311692</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="41" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B55" s="42">
         <v>95720</v>
@@ -13664,9 +13745,9 @@
         <v>0.92923017182797785</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="41" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B56" s="42">
         <v>84250</v>
@@ -13693,9 +13774,9 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="41" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="B57" s="42">
         <v>83686.11202275462</v>
@@ -13720,9 +13801,9 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="36" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B58" s="69">
         <v>105124.8</v>
@@ -13749,32 +13830,32 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="41" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="E59" s="75" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="F59" s="44"/>
       <c r="G59" s="45"/>
       <c r="H59" s="46"/>
       <c r="I59" s="47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="41" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="B60" s="42">
         <v>983</v>
@@ -13801,9 +13882,9 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="41" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B61" s="42">
         <v>962.18504920853229</v>
@@ -13830,9 +13911,9 @@
         <v>0.9009009009009008</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="41" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B62" s="42">
         <v>290</v>
@@ -13859,9 +13940,9 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="41" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="B63" s="42"/>
       <c r="C63" s="48"/>
@@ -13880,9 +13961,9 @@
       </c>
       <c r="I63" s="47"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="36" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B64" s="69">
         <v>1159.2737122826286</v>
@@ -13909,30 +13990,30 @@
         <v>0.90586790472651468</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="41" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="E65" s="50"/>
       <c r="F65" s="51"/>
       <c r="G65" s="50"/>
       <c r="H65" s="46"/>
       <c r="I65" s="47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="59" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="B66" s="42">
         <v>19474169.219601419</v>
@@ -13956,9 +14037,9 @@
       <c r="I66" s="81"/>
       <c r="K66" s="82"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="59" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B67" s="42">
         <v>22639319.979813498</v>
@@ -13984,9 +14065,9 @@
       </c>
       <c r="K67" s="82"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="59" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="B68" s="42">
         <v>16085444.010446707</v>
@@ -14012,9 +14093,9 @@
       </c>
       <c r="K68" s="82"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="59" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B69" s="42">
         <v>10805182.822031699</v>
@@ -14040,9 +14121,9 @@
       </c>
       <c r="K69" s="82"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="59" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="B70" s="42">
         <v>22639319.979813498</v>
@@ -14068,9 +14149,9 @@
       </c>
       <c r="K70" s="82"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="41" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B71" s="42">
         <v>9945646.340310514</v>
@@ -14097,9 +14178,9 @@
       <c r="K71" s="82"/>
       <c r="L71" s="82"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="41" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B72" s="42">
         <v>26949428.734871496</v>
@@ -14125,9 +14206,9 @@
       </c>
       <c r="K72" s="82"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="41" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="B73" s="42">
         <v>26664354.295994278</v>
@@ -14152,9 +14233,9 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="12.6" customHeight="1">
       <c r="A74" s="41" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B74" s="42">
         <v>24599421.97472629</v>
@@ -14180,9 +14261,9 @@
       </c>
       <c r="K74" s="84"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="41" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B75" s="42">
         <v>28385750.368920002</v>
@@ -14208,9 +14289,9 @@
       </c>
       <c r="K75" s="84"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="41" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="B76" s="42">
         <v>15396000</v>
@@ -14235,9 +14316,9 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="41" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B77" s="42">
         <v>15929000</v>
@@ -14263,9 +14344,9 @@
       </c>
       <c r="K77" s="85"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="41" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="B78" s="42">
         <v>14447000</v>
@@ -14291,9 +14372,9 @@
       </c>
       <c r="K78" s="84"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" s="41" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="B79" s="42">
         <v>15342000</v>
@@ -14318,9 +14399,9 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" s="41" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B80" s="42">
         <v>14716000</v>
@@ -14345,9 +14426,9 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14">
       <c r="A81" s="41" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="B81" s="42">
         <v>17289000</v>
@@ -14372,9 +14453,9 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14">
       <c r="A82" s="41" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="B82" s="42">
         <v>15929000</v>
@@ -14399,9 +14480,9 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14">
       <c r="A83" s="59" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="B83" s="42">
         <v>14999999.999999998</v>
@@ -14422,9 +14503,9 @@
       </c>
       <c r="I83" s="88"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14">
       <c r="A84" s="89" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="B84" s="50">
         <v>13454048.892850777</v>
@@ -14445,9 +14526,9 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14">
       <c r="A85" s="89" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B85" s="50">
         <v>12381771.311916806</v>
@@ -14468,9 +14549,9 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14">
       <c r="A86" s="89" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="B86" s="50">
         <v>18916910.5715716</v>
@@ -14495,9 +14576,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14">
       <c r="A87" s="92" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="B87" s="50">
         <v>12781599.343864119</v>
@@ -14522,9 +14603,9 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14">
       <c r="A88" s="93" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="B88" s="94">
         <v>14409931.248165678</v>
@@ -14549,9 +14630,9 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="B89" s="50">
         <v>14409931.248165678</v>
@@ -14576,9 +14657,9 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14">
       <c r="A90" s="20" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="B90" s="103">
         <v>11209638.734587256</v>
@@ -14603,9 +14684,9 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B91" s="103">
         <v>14155275.214870876</v>
@@ -14630,9 +14711,9 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14">
       <c r="A92" s="104" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="B92" s="105">
         <v>152370.90134048002</v>
@@ -14664,9 +14745,9 @@
       <c r="M92" s="107"/>
       <c r="N92" s="108"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14">
       <c r="A93" s="109" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="B93" s="110">
         <v>144230</v>
@@ -14690,21 +14771,21 @@
       <c r="M93" s="111"/>
       <c r="N93" s="112"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14">
       <c r="A94" s="113"/>
       <c r="B94" s="114"/>
       <c r="N94" s="115"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14">
       <c r="A95" s="113" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="B95" s="114"/>
       <c r="N95" s="115"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14">
       <c r="A96" s="109" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="B96" s="116"/>
       <c r="C96" s="117"/>
@@ -14720,53 +14801,53 @@
       <c r="M96" s="117"/>
       <c r="N96" s="118"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14">
       <c r="A97" s="119" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="C97" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="D97" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="E97" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="F97" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="G97" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="H97" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="I97" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="J97" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="K97" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="L97" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="M97" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="N97" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="2" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B98" s="53">
         <v>100</v>
@@ -14808,9 +14889,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14">
       <c r="A99" s="120" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="B99" s="121">
         <v>1</v>
@@ -14852,9 +14933,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14">
       <c r="A100" s="109" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="B100" s="110">
         <v>30</v>
@@ -14896,9 +14977,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14">
       <c r="A101" s="113" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="B101" s="114">
         <v>265</v>
@@ -14940,44 +15021,44 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14">
       <c r="A102" s="113"/>
       <c r="B102" s="114"/>
       <c r="G102" s="115"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14">
       <c r="A103" s="113" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="B103" s="114"/>
       <c r="G103" s="115"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14">
       <c r="A104" s="113" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="B104" s="114" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="C104" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="D104" s="126" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="E104" s="126" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="F104" s="126" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="G104" s="127" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="109" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B105" s="116">
         <v>100</v>
@@ -14996,9 +15077,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -15019,9 +15100,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14">
       <c r="A107" s="20" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -15042,9 +15123,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14">
       <c r="A108" s="104" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="B108" s="128">
         <v>0</v>
@@ -15065,9 +15146,9 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14">
       <c r="A109" s="113" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="B109" s="129">
         <v>0</v>
@@ -15088,9 +15169,9 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14">
       <c r="A110" s="113" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="B110" s="129">
         <v>0</v>
@@ -15111,43 +15192,43 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14">
       <c r="A111" s="113"/>
       <c r="B111" s="129"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14">
       <c r="A112" s="109" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B112" s="130"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B113">
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24">
       <c r="A114" s="20" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="B114">
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="B115">
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="B116" s="131">
         <v>0.27272727272727271</v>
@@ -15158,9 +15239,9 @@
       <c r="R116" s="133"/>
       <c r="V116" s="133"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="B117" s="134">
         <v>0.5</v>
@@ -15171,7 +15252,7 @@
       <c r="R117" s="136"/>
       <c r="V117" s="136"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24">
       <c r="B118" s="137"/>
       <c r="C118" s="138"/>
       <c r="D118" s="139"/>
@@ -15191,9 +15272,9 @@
       <c r="W118" s="140"/>
       <c r="X118" s="139"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="B119" s="141"/>
       <c r="C119" s="142"/>
@@ -15214,7 +15295,7 @@
       <c r="W119" s="142"/>
       <c r="X119" s="143"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24">
       <c r="B120" s="144"/>
       <c r="C120" s="136"/>
       <c r="D120" s="145"/>
@@ -15234,7 +15315,7 @@
       <c r="W120" s="136"/>
       <c r="X120" s="145"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24">
       <c r="B121" s="144">
         <v>10</v>
       </c>
@@ -15266,7 +15347,7 @@
       <c r="W121" s="136"/>
       <c r="X121" s="145"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24">
       <c r="B122" s="144">
         <v>10</v>
       </c>
@@ -15298,63 +15379,63 @@
       <c r="W122" s="136"/>
       <c r="X122" s="145"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24">
       <c r="B123" s="144" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C123" s="136" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="D123" s="145" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="F123" s="146" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="G123" s="147" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="H123" s="148" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="J123" s="146" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="K123" s="147" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="L123" s="148" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="N123" s="146" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="O123" s="147" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="P123" s="148" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="R123" s="146" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="S123" s="147" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="T123" s="148" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="V123" s="146" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="W123" s="147" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="X123" s="148" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="B124" s="144">
         <v>1990</v>
       </c>
@@ -15410,7 +15491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24">
       <c r="B125" s="144">
         <v>1995</v>
       </c>
@@ -15466,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24">
       <c r="B126" s="149">
         <v>2000</v>
       </c>
@@ -15522,7 +15603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24">
       <c r="B127">
         <v>2005</v>
       </c>
@@ -15578,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24">
       <c r="A128" s="20"/>
       <c r="B128">
         <v>2010</v>
@@ -15635,7 +15716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24">
       <c r="A129" s="152"/>
       <c r="B129" s="153">
         <v>2015</v>
@@ -15693,7 +15774,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24">
       <c r="A130" s="155"/>
       <c r="B130" s="156">
         <v>2017</v>
@@ -15751,7 +15832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24">
       <c r="A131" s="155"/>
       <c r="B131" s="159">
         <v>2020</v>
@@ -15765,7 +15846,7 @@
       <c r="E131" s="157"/>
       <c r="F131" s="160"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24">
       <c r="A132" s="155"/>
       <c r="B132" s="159"/>
       <c r="C132" s="159"/>
@@ -15773,9 +15854,9 @@
       <c r="E132" s="159"/>
       <c r="F132" s="160"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24">
       <c r="A133" s="155" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="B133" s="159"/>
       <c r="C133" s="157"/>
@@ -15783,29 +15864,29 @@
       <c r="E133" s="156"/>
       <c r="F133" s="158"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24">
       <c r="A134" s="161" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="B134" s="162" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="C134" s="162" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="D134" s="163" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="E134" s="162" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="F134" s="164" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -15823,7 +15904,7 @@
         <v>907184.74</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24">
       <c r="A136" s="152" t="s">
         <v>51</v>
       </c>
@@ -15843,9 +15924,9 @@
         <v>907.18474000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24">
       <c r="A137" s="155" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="B137" s="134">
         <v>9.9999999999999995E-7</v>
@@ -15863,9 +15944,9 @@
         <v>0.90718474000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24">
       <c r="A138" s="155" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B138" s="156">
         <v>2.2046226218487759E-3</v>
@@ -15883,9 +15964,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24">
       <c r="A139" s="155" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B139" s="156">
         <v>1.102311310924388E-6</v>
@@ -15903,7 +15984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24">
       <c r="A140" s="155"/>
       <c r="B140" s="136"/>
       <c r="C140" s="159"/>
@@ -15911,29 +15992,29 @@
       <c r="E140" s="156"/>
       <c r="F140" s="160"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24">
       <c r="A141" s="161" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="B141" s="150" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="C141" s="162" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="D141" s="163" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="E141" s="163" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="F141" s="164" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -15951,9 +16032,9 @@
         <v>2.8316846999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24">
       <c r="A143" s="152" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B143" s="153">
         <v>1000000</v>
@@ -15974,9 +16055,9 @@
       <c r="H143" s="153"/>
       <c r="I143" s="154"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24">
       <c r="A144" s="155" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="B144" s="156">
         <v>1000</v>
@@ -15997,9 +16078,9 @@
       <c r="H144" s="156"/>
       <c r="I144" s="115"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="A145" s="155" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B145" s="157">
         <v>264.17210707106841</v>
@@ -16020,9 +16101,9 @@
       <c r="H145" s="156"/>
       <c r="I145" s="115"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="155" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="B146" s="159">
         <v>35.314666212661322</v>
@@ -16043,7 +16124,7 @@
       <c r="H146" s="156"/>
       <c r="I146" s="115"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" s="155"/>
       <c r="B147" s="159"/>
       <c r="C147" s="157"/>
@@ -16054,38 +16135,38 @@
       <c r="H147" s="156"/>
       <c r="I147" s="115"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" s="155" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="B148" s="170" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="C148" s="159" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="D148" s="157" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="E148" s="157" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="F148" s="156" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="G148" s="159" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="H148" s="156" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="I148" s="115" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="155" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="B149" s="159">
         <v>1</v>
@@ -16112,9 +16193,9 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="155" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="B150" s="171">
         <v>1E-3</v>
@@ -16141,9 +16222,9 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" s="161" t="s">
-        <v>378</v>
+        <v>65</v>
       </c>
       <c r="B151" s="117">
         <v>9.9999999999999995E-7</v>
@@ -16170,9 +16251,9 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="B152">
         <v>2.7777777777777778E-4</v>
@@ -16199,9 +16280,9 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B153">
         <v>2.7777777777777776E-7</v>
@@ -16228,9 +16309,9 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="B154">
         <v>9.4781712266701337E-4</v>
@@ -16257,9 +16338,9 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="B155">
         <v>9.4781712266701324E-10</v>
@@ -16286,9 +16367,9 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B156">
         <v>3.72506136E-7</v>
@@ -16315,29 +16396,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="B158" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="C158" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="D158" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="E158" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="F158" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -16355,9 +16436,9 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B160">
         <v>1E-3</v>
@@ -16375,9 +16456,9 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B161">
         <v>9.9999999999999995E-7</v>
@@ -16395,9 +16476,9 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B162">
         <v>3.2808398950131233E-3</v>
@@ -16415,9 +16496,9 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B163">
         <v>6.2137273664980671E-7</v>
@@ -16469,15 +16550,15 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="34" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="34" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -16579,9 +16660,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B2" s="186">
         <f>About!$A$93*10^6</f>
@@ -16716,9 +16797,9 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B3" s="187">
         <f>About!$A$95*'AEO Table 73'!D66*10^12</f>
@@ -16853,7 +16934,7 @@
         <v>21922172488039.996</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -16990,9 +17071,9 @@
         <v>947813394498.89111</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="B5" s="187">
         <f>1000/About!$A$109*10^12</f>
@@ -17127,9 +17208,9 @@
         <v>947813394498.89111</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="B6" s="191">
         <f>0</f>
@@ -17264,9 +17345,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B7" s="191">
         <f>0</f>
@@ -17401,9 +17482,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="B8" s="191">
         <f>0</f>
@@ -17538,9 +17619,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B9" s="187">
         <f>About!$A$95*'GREET1 Fuel_Specs'!$D$81*10^6</f>
@@ -17675,9 +17756,9 @@
         <v>19737962860000</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B10" s="188">
         <f>'GREET1 Fuel_Specs'!$D$15/About!$A$98</f>
@@ -17812,9 +17893,9 @@
         <v>32847.168470522345</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="B11" s="189">
         <f>'GREET1 Fuel_Specs'!$D$20/About!$A$98</f>
@@ -17949,9 +18030,9 @@
         <v>36291.973656750524</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="B12" s="189">
         <f>'GREET1 Fuel_Specs'!$D$15/About!$A$98</f>
@@ -18086,9 +18167,9 @@
         <v>32847.168470522345</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="B13" s="189">
         <f>'GREET1 Fuel_Specs'!$D$20/About!$A$98</f>
@@ -18223,9 +18304,9 @@
         <v>36291.973656750524</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B14" s="190">
         <f>'GREET1 Fuel_Specs'!$D$27/About!$A$98</f>
@@ -18360,9 +18441,9 @@
         <v>34763.709690237556</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="B15" s="186">
         <f>About!$A$93*10^6</f>
@@ -18497,9 +18578,9 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B16" s="191">
         <f>0</f>
@@ -18634,9 +18715,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="B17" s="187">
         <f>About!$A$95*'GREET1 Fuel_Specs'!$D$69*10^6</f>
@@ -18771,9 +18852,9 @@
         <v>14321544386446.232</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="B18" s="188">
         <f>'GREET1 Fuel_Specs'!$D$7/About!$A$98</f>
@@ -18908,9 +18989,9 @@
         <v>36548.220668302769</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="B19" s="190">
         <f>'GREET1 Fuel_Specs'!$D$7/About!$A$98</f>
@@ -19045,9 +19126,9 @@
         <v>36548.220668302769</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="B20" s="187">
         <f>About!$A$98/About!$A$105*'GREET1 Fuel_Specs'!$D$36*10^6</f>
@@ -19182,9 +19263,9 @@
         <v>187648767.95010847</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="B21" s="187">
         <f>About!$A$95*'GREET1 Fuel_Specs'!$D$90*10^6</f>
@@ -19319,7 +19400,7 @@
         <v>14973166799680.666</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -19470,18 +19551,18 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="34" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -19583,9 +19664,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="B2">
         <f>About!$A$93</f>
@@ -19720,9 +19801,9 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B3" s="181">
         <f>'AEO Table 73'!D66*10^6*About!$A$95</f>
@@ -19857,7 +19938,7 @@
         <v>21922172.488039996</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -19994,9 +20075,9 @@
         <v>947.81339449889106</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="B5" s="181">
         <f>10^6/About!$A$109*10^3</f>
@@ -20131,9 +20212,9 @@
         <v>947813.39449889108</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="B6">
         <f>0</f>
@@ -20268,9 +20349,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B7">
         <f>0</f>
@@ -20405,9 +20486,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="B8">
         <f>0</f>
@@ -20542,9 +20623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B9" s="181">
         <f>'GREET1 Fuel_Specs'!$D$81*About!$A$95</f>
@@ -20679,13 +20760,13 @@
         <v>19737962.859999999</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B10" s="181">
-        <f>'AEO Table 73'!D32*10^6/gal_per_barrel/About!$A$98</f>
-        <v>31796.64378055041</v>
+        <f>'AEO Table 73'!D32*10^6/gal_per_barrel/About!$A$98*1000/About!A113</f>
+        <v>917387.29891951568</v>
       </c>
       <c r="C10">
         <f>'AEO Table 73'!E32*10^6/gal_per_barrel/About!$A$98</f>
@@ -20816,13 +20897,13 @@
         <v>31593.960822762987</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="B11" s="181">
-        <f>'AEO Table 73'!D19*10^6/gal_per_barrel/About!$A$98</f>
-        <v>36638.165004709183</v>
+        <f>'AEO Table 73'!D19*10^6/gal_per_barrel/About!$A$98*1000/About!A112</f>
+        <v>947212.12525101309</v>
       </c>
       <c r="C11">
         <f>'AEO Table 73'!E19*10^6/gal_per_barrel/About!$A$98</f>
@@ -20953,13 +21034,13 @@
         <v>36638.165004709183</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="B12" s="181">
-        <f>'AEO Table 73'!D29*10^6/gal_per_barrel/About!$A$98</f>
-        <v>25091.532514374423</v>
+        <f>'AEO Table 73'!D29*10^6/gal_per_barrel/About!$A$98*1000/About!A113</f>
+        <v>723933.42511178378</v>
       </c>
       <c r="C12">
         <f>'AEO Table 73'!E29*10^6/gal_per_barrel/About!$A$98</f>
@@ -21090,13 +21171,13 @@
         <v>25091.532514374423</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="B13" s="181">
-        <f>'AEO Table 73'!D18*10^6/gal_per_barrel/About!$A$98</f>
-        <v>33707.111804332446</v>
+        <f>'AEO Table 73'!D18*10^6/gal_per_barrel/About!$A$98*1000/About!A112</f>
+        <v>871435.15523093182</v>
       </c>
       <c r="C13">
         <f>'AEO Table 73'!E18*10^6/gal_per_barrel/About!$A$98</f>
@@ -21227,13 +21308,13 @@
         <v>33707.111804332446</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B14" s="181">
-        <f>'AEO Table 73'!D30*10^6/gal_per_barrel/About!$A$98</f>
-        <v>35663.243875828506</v>
+        <f>'AEO Table 73'!D30*10^6/gal_per_barrel/About!$A$98*1000/About!A111</f>
+        <v>1027759.1895051441</v>
       </c>
       <c r="C14">
         <f>'AEO Table 73'!E30*10^6/gal_per_barrel/About!$A$98</f>
@@ -21364,9 +21445,9 @@
         <v>35663.243875828506</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="B15">
         <f>About!$A$93</f>
@@ -21501,9 +21582,9 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B16">
         <f>0</f>
@@ -21638,9 +21719,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="B17" s="181">
         <f>'GREET1 Fuel_Specs'!$D$69*About!$A$95</f>
@@ -21775,9 +21856,9 @@
         <v>14321544.386446232</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="B18" s="183">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$103*1000</f>
@@ -21912,9 +21993,9 @@
         <v>41486155.505107835</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="B19" s="184">
         <f>'GREET1 Fuel_Specs'!$D$7*gal_per_barrel*About!$A$107/About!$A$104*1000</f>
@@ -22049,13 +22130,13 @@
         <v>40385970.165745854</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="B20" s="181">
-        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
-        <v>346024.32810000004</v>
+        <f>'GREET1 Fuel_Specs'!$D$36/About!$A$98*1000/(AVERAGE(About!A114:A115))</f>
+        <v>891892.1029210994</v>
       </c>
       <c r="C20">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$98</f>
@@ -22186,9 +22267,9 @@
         <v>346024.32810000004</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="B21" s="181">
         <f>'GREET1 Fuel_Specs'!$D$90*About!$A$95</f>
@@ -22323,7 +22404,7 @@
         <v>14973166.799680665</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -22474,18 +22555,18 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
     <col min="2" max="34" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -22587,9 +22668,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -22691,9 +22772,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -22795,9 +22876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="B4" s="182">
         <f>'AEO Table 73'!D32*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
@@ -22932,9 +23013,9 @@
         <v>50845.424910505382</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="B5" s="182">
         <f>'AEO Table 73'!D19*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
@@ -23069,9 +23150,9 @@
         <v>58963.264468678673</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="B6">
         <f>0</f>
@@ -23206,9 +23287,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="B7">
         <f>0</f>
@@ -23343,9 +23424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="B8" s="182">
         <f>'AEO Table 73'!D30*10^6/gal_per_barrel*About!$A$97/About!$A$98</f>
@@ -23480,9 +23561,9 @@
         <v>57394.284899125851</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -23584,9 +23665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -23688,7 +23769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -23809,19 +23890,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="B2">
         <f>CONVERT(1, "PJ", "BTU")</f>
@@ -23834,26 +23915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -24113,7 +24174,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -24122,41 +24183,34 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB3DEE1-1A60-451D-9C88-73A5EDDC19C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD4553A-3FAD-49D4-A977-16BCBD6FF7EA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD4553A-3FAD-49D4-A977-16BCBD6FF7EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB4D2E01-141D-4FC9-8141-3BEAB0211A2D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB4D2E01-141D-4FC9-8141-3BEAB0211A2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB3DEE1-1A60-451D-9C88-73A5EDDC19C0}"/>
 </file>
--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -23915,8 +23915,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -23942,6 +23942,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -24042,6 +24043,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -24204,7 +24210,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD4553A-3FAD-49D4-A977-16BCBD6FF7EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9B91E83-F722-4F9A-A5E6-B309FF8652A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
